--- a/參加者名單.xlsx
+++ b/參加者名單.xlsx
@@ -427,7 +427,7 @@
         <v>社員 1</v>
       </c>
       <c r="C2" t="str">
-        <v>南區</v>
+        <v>南區社</v>
       </c>
       <c r="D2" t="str">
         <v>第一分區</v>
@@ -444,7 +444,7 @@
         <v>社員 2</v>
       </c>
       <c r="C3" t="str">
-        <v>南區</v>
+        <v>南區社</v>
       </c>
       <c r="D3" t="str">
         <v>第一分區</v>
@@ -461,7 +461,7 @@
         <v>社員 3</v>
       </c>
       <c r="C4" t="str">
-        <v>南區</v>
+        <v>南區社</v>
       </c>
       <c r="D4" t="str">
         <v>第一分區</v>
@@ -478,7 +478,7 @@
         <v>社員 4</v>
       </c>
       <c r="C5" t="str">
-        <v>南區</v>
+        <v>南區社</v>
       </c>
       <c r="D5" t="str">
         <v>第一分區</v>
@@ -495,7 +495,7 @@
         <v>社員 5</v>
       </c>
       <c r="C6" t="str">
-        <v>南區</v>
+        <v>南區社</v>
       </c>
       <c r="D6" t="str">
         <v>第一分區</v>
@@ -512,7 +512,7 @@
         <v>社員 6</v>
       </c>
       <c r="C7" t="str">
-        <v>南區</v>
+        <v>南區社</v>
       </c>
       <c r="D7" t="str">
         <v>第一分區</v>
@@ -529,7 +529,7 @@
         <v>社員 7</v>
       </c>
       <c r="C8" t="str">
-        <v>南區</v>
+        <v>南區社</v>
       </c>
       <c r="D8" t="str">
         <v>第一分區</v>
@@ -546,7 +546,7 @@
         <v>社員 8</v>
       </c>
       <c r="C9" t="str">
-        <v>南區</v>
+        <v>南區社</v>
       </c>
       <c r="D9" t="str">
         <v>第一分區</v>
@@ -563,7 +563,7 @@
         <v>社員 9</v>
       </c>
       <c r="C10" t="str">
-        <v>南區</v>
+        <v>南區社</v>
       </c>
       <c r="D10" t="str">
         <v>第一分區</v>
@@ -580,7 +580,7 @@
         <v>社員 10</v>
       </c>
       <c r="C11" t="str">
-        <v>南區</v>
+        <v>南區社</v>
       </c>
       <c r="D11" t="str">
         <v>第一分區</v>
@@ -597,7 +597,7 @@
         <v>社員 11</v>
       </c>
       <c r="C12" t="str">
-        <v>南區</v>
+        <v>南區社</v>
       </c>
       <c r="D12" t="str">
         <v>第一分區</v>
@@ -614,7 +614,7 @@
         <v>社員 12</v>
       </c>
       <c r="C13" t="str">
-        <v>南區</v>
+        <v>南區社</v>
       </c>
       <c r="D13" t="str">
         <v>第一分區</v>
@@ -631,7 +631,7 @@
         <v>社員 13</v>
       </c>
       <c r="C14" t="str">
-        <v>南區</v>
+        <v>南區社</v>
       </c>
       <c r="D14" t="str">
         <v>第一分區</v>
@@ -648,7 +648,7 @@
         <v>社員 14</v>
       </c>
       <c r="C15" t="str">
-        <v>南區</v>
+        <v>南區社</v>
       </c>
       <c r="D15" t="str">
         <v>第一分區</v>
@@ -665,7 +665,7 @@
         <v>社員 15</v>
       </c>
       <c r="C16" t="str">
-        <v>南區</v>
+        <v>南區社</v>
       </c>
       <c r="D16" t="str">
         <v>第一分區</v>
@@ -682,7 +682,7 @@
         <v>社員 16</v>
       </c>
       <c r="C17" t="str">
-        <v>南區</v>
+        <v>南區社</v>
       </c>
       <c r="D17" t="str">
         <v>第一分區</v>
@@ -699,7 +699,7 @@
         <v>社員 17</v>
       </c>
       <c r="C18" t="str">
-        <v>南區</v>
+        <v>南區社</v>
       </c>
       <c r="D18" t="str">
         <v>第一分區</v>
@@ -716,7 +716,7 @@
         <v>社員 18</v>
       </c>
       <c r="C19" t="str">
-        <v>南區</v>
+        <v>南區社</v>
       </c>
       <c r="D19" t="str">
         <v>第一分區</v>
@@ -733,7 +733,7 @@
         <v>社員 19</v>
       </c>
       <c r="C20" t="str">
-        <v>南區</v>
+        <v>南區社</v>
       </c>
       <c r="D20" t="str">
         <v>第一分區</v>
@@ -750,7 +750,7 @@
         <v>社員 20</v>
       </c>
       <c r="C21" t="str">
-        <v>南區</v>
+        <v>南區社</v>
       </c>
       <c r="D21" t="str">
         <v>第一分區</v>
@@ -767,7 +767,7 @@
         <v>社員 21</v>
       </c>
       <c r="C22" t="str">
-        <v>逸仙</v>
+        <v>逸仙社</v>
       </c>
       <c r="D22" t="str">
         <v>第一分區</v>
@@ -784,7 +784,7 @@
         <v>社員 22</v>
       </c>
       <c r="C23" t="str">
-        <v>逸仙</v>
+        <v>逸仙社</v>
       </c>
       <c r="D23" t="str">
         <v>第一分區</v>
@@ -801,7 +801,7 @@
         <v>社員 23</v>
       </c>
       <c r="C24" t="str">
-        <v>逸仙</v>
+        <v>逸仙社</v>
       </c>
       <c r="D24" t="str">
         <v>第一分區</v>
@@ -818,7 +818,7 @@
         <v>社員 24</v>
       </c>
       <c r="C25" t="str">
-        <v>逸仙</v>
+        <v>逸仙社</v>
       </c>
       <c r="D25" t="str">
         <v>第一分區</v>
@@ -835,7 +835,7 @@
         <v>社員 25</v>
       </c>
       <c r="C26" t="str">
-        <v>逸仙</v>
+        <v>逸仙社</v>
       </c>
       <c r="D26" t="str">
         <v>第一分區</v>
@@ -852,7 +852,7 @@
         <v>社員 26</v>
       </c>
       <c r="C27" t="str">
-        <v>逸仙</v>
+        <v>逸仙社</v>
       </c>
       <c r="D27" t="str">
         <v>第一分區</v>
@@ -869,7 +869,7 @@
         <v>社員 27</v>
       </c>
       <c r="C28" t="str">
-        <v>逸仙</v>
+        <v>逸仙社</v>
       </c>
       <c r="D28" t="str">
         <v>第一分區</v>
@@ -886,7 +886,7 @@
         <v>社員 28</v>
       </c>
       <c r="C29" t="str">
-        <v>逸仙</v>
+        <v>逸仙社</v>
       </c>
       <c r="D29" t="str">
         <v>第一分區</v>
@@ -903,7 +903,7 @@
         <v>社員 29</v>
       </c>
       <c r="C30" t="str">
-        <v>逸仙</v>
+        <v>逸仙社</v>
       </c>
       <c r="D30" t="str">
         <v>第一分區</v>
@@ -920,7 +920,7 @@
         <v>社員 30</v>
       </c>
       <c r="C31" t="str">
-        <v>逸仙</v>
+        <v>逸仙社</v>
       </c>
       <c r="D31" t="str">
         <v>第一分區</v>
@@ -937,7 +937,7 @@
         <v>社員 31</v>
       </c>
       <c r="C32" t="str">
-        <v>逸仙</v>
+        <v>逸仙社</v>
       </c>
       <c r="D32" t="str">
         <v>第一分區</v>
@@ -954,7 +954,7 @@
         <v>社員 32</v>
       </c>
       <c r="C33" t="str">
-        <v>逸仙</v>
+        <v>逸仙社</v>
       </c>
       <c r="D33" t="str">
         <v>第一分區</v>
@@ -971,7 +971,7 @@
         <v>社員 33</v>
       </c>
       <c r="C34" t="str">
-        <v>逸仙</v>
+        <v>逸仙社</v>
       </c>
       <c r="D34" t="str">
         <v>第一分區</v>
@@ -988,7 +988,7 @@
         <v>社員 34</v>
       </c>
       <c r="C35" t="str">
-        <v>逸仙</v>
+        <v>逸仙社</v>
       </c>
       <c r="D35" t="str">
         <v>第一分區</v>
@@ -1005,7 +1005,7 @@
         <v>社員 35</v>
       </c>
       <c r="C36" t="str">
-        <v>逸仙</v>
+        <v>逸仙社</v>
       </c>
       <c r="D36" t="str">
         <v>第一分區</v>
@@ -1022,7 +1022,7 @@
         <v>社員 36</v>
       </c>
       <c r="C37" t="str">
-        <v>逸仙</v>
+        <v>逸仙社</v>
       </c>
       <c r="D37" t="str">
         <v>第一分區</v>
@@ -1039,7 +1039,7 @@
         <v>社員 37</v>
       </c>
       <c r="C38" t="str">
-        <v>逸仙</v>
+        <v>逸仙社</v>
       </c>
       <c r="D38" t="str">
         <v>第一分區</v>
@@ -1056,7 +1056,7 @@
         <v>社員 38</v>
       </c>
       <c r="C39" t="str">
-        <v>逸仙</v>
+        <v>逸仙社</v>
       </c>
       <c r="D39" t="str">
         <v>第一分區</v>
@@ -1073,7 +1073,7 @@
         <v>社員 39</v>
       </c>
       <c r="C40" t="str">
-        <v>逸仙</v>
+        <v>逸仙社</v>
       </c>
       <c r="D40" t="str">
         <v>第一分區</v>
@@ -1090,7 +1090,7 @@
         <v>社員 40</v>
       </c>
       <c r="C41" t="str">
-        <v>逸仙</v>
+        <v>逸仙社</v>
       </c>
       <c r="D41" t="str">
         <v>第一分區</v>
@@ -1107,7 +1107,7 @@
         <v>社員 41</v>
       </c>
       <c r="C42" t="str">
-        <v>逸天</v>
+        <v>逸天社</v>
       </c>
       <c r="D42" t="str">
         <v>第一分區</v>
@@ -1124,7 +1124,7 @@
         <v>社員 42</v>
       </c>
       <c r="C43" t="str">
-        <v>逸天</v>
+        <v>逸天社</v>
       </c>
       <c r="D43" t="str">
         <v>第一分區</v>
@@ -1141,7 +1141,7 @@
         <v>社員 43</v>
       </c>
       <c r="C44" t="str">
-        <v>逸天</v>
+        <v>逸天社</v>
       </c>
       <c r="D44" t="str">
         <v>第一分區</v>
@@ -1158,7 +1158,7 @@
         <v>社員 44</v>
       </c>
       <c r="C45" t="str">
-        <v>逸天</v>
+        <v>逸天社</v>
       </c>
       <c r="D45" t="str">
         <v>第一分區</v>
@@ -1175,7 +1175,7 @@
         <v>社員 45</v>
       </c>
       <c r="C46" t="str">
-        <v>逸天</v>
+        <v>逸天社</v>
       </c>
       <c r="D46" t="str">
         <v>第一分區</v>
@@ -1192,7 +1192,7 @@
         <v>社員 46</v>
       </c>
       <c r="C47" t="str">
-        <v>逸天</v>
+        <v>逸天社</v>
       </c>
       <c r="D47" t="str">
         <v>第一分區</v>
@@ -1209,7 +1209,7 @@
         <v>社員 47</v>
       </c>
       <c r="C48" t="str">
-        <v>逸天</v>
+        <v>逸天社</v>
       </c>
       <c r="D48" t="str">
         <v>第一分區</v>
@@ -1226,7 +1226,7 @@
         <v>社員 48</v>
       </c>
       <c r="C49" t="str">
-        <v>逸天</v>
+        <v>逸天社</v>
       </c>
       <c r="D49" t="str">
         <v>第一分區</v>
@@ -1243,7 +1243,7 @@
         <v>社員 49</v>
       </c>
       <c r="C50" t="str">
-        <v>逸天</v>
+        <v>逸天社</v>
       </c>
       <c r="D50" t="str">
         <v>第一分區</v>
@@ -1260,7 +1260,7 @@
         <v>社員 50</v>
       </c>
       <c r="C51" t="str">
-        <v>逸天</v>
+        <v>逸天社</v>
       </c>
       <c r="D51" t="str">
         <v>第一分區</v>
@@ -1277,7 +1277,7 @@
         <v>社員 51</v>
       </c>
       <c r="C52" t="str">
-        <v>逸天</v>
+        <v>逸天社</v>
       </c>
       <c r="D52" t="str">
         <v>第一分區</v>
@@ -1294,7 +1294,7 @@
         <v>社員 52</v>
       </c>
       <c r="C53" t="str">
-        <v>逸天</v>
+        <v>逸天社</v>
       </c>
       <c r="D53" t="str">
         <v>第一分區</v>
@@ -1311,7 +1311,7 @@
         <v>社員 53</v>
       </c>
       <c r="C54" t="str">
-        <v>逸天</v>
+        <v>逸天社</v>
       </c>
       <c r="D54" t="str">
         <v>第一分區</v>
@@ -1328,7 +1328,7 @@
         <v>社員 54</v>
       </c>
       <c r="C55" t="str">
-        <v>逸天</v>
+        <v>逸天社</v>
       </c>
       <c r="D55" t="str">
         <v>第一分區</v>
@@ -1345,7 +1345,7 @@
         <v>社員 55</v>
       </c>
       <c r="C56" t="str">
-        <v>逸天</v>
+        <v>逸天社</v>
       </c>
       <c r="D56" t="str">
         <v>第一分區</v>
@@ -1362,7 +1362,7 @@
         <v>社員 56</v>
       </c>
       <c r="C57" t="str">
-        <v>逸天</v>
+        <v>逸天社</v>
       </c>
       <c r="D57" t="str">
         <v>第一分區</v>
@@ -1379,7 +1379,7 @@
         <v>社員 57</v>
       </c>
       <c r="C58" t="str">
-        <v>逸天</v>
+        <v>逸天社</v>
       </c>
       <c r="D58" t="str">
         <v>第一分區</v>
@@ -1396,7 +1396,7 @@
         <v>社員 58</v>
       </c>
       <c r="C59" t="str">
-        <v>逸天</v>
+        <v>逸天社</v>
       </c>
       <c r="D59" t="str">
         <v>第一分區</v>
@@ -1413,7 +1413,7 @@
         <v>社員 59</v>
       </c>
       <c r="C60" t="str">
-        <v>逸天</v>
+        <v>逸天社</v>
       </c>
       <c r="D60" t="str">
         <v>第一分區</v>
@@ -1430,7 +1430,7 @@
         <v>社員 60</v>
       </c>
       <c r="C61" t="str">
-        <v>逸天</v>
+        <v>逸天社</v>
       </c>
       <c r="D61" t="str">
         <v>第一分區</v>
@@ -1447,7 +1447,7 @@
         <v>社員 61</v>
       </c>
       <c r="C62" t="str">
-        <v>雲聯網</v>
+        <v>雲聯網社</v>
       </c>
       <c r="D62" t="str">
         <v>第一分區</v>
@@ -1464,7 +1464,7 @@
         <v>社員 62</v>
       </c>
       <c r="C63" t="str">
-        <v>雲聯網</v>
+        <v>雲聯網社</v>
       </c>
       <c r="D63" t="str">
         <v>第一分區</v>
@@ -1481,7 +1481,7 @@
         <v>社員 63</v>
       </c>
       <c r="C64" t="str">
-        <v>雲聯網</v>
+        <v>雲聯網社</v>
       </c>
       <c r="D64" t="str">
         <v>第一分區</v>
@@ -1498,7 +1498,7 @@
         <v>社員 64</v>
       </c>
       <c r="C65" t="str">
-        <v>雲聯網</v>
+        <v>雲聯網社</v>
       </c>
       <c r="D65" t="str">
         <v>第一分區</v>
@@ -1515,7 +1515,7 @@
         <v>社員 65</v>
       </c>
       <c r="C66" t="str">
-        <v>雲聯網</v>
+        <v>雲聯網社</v>
       </c>
       <c r="D66" t="str">
         <v>第一分區</v>
@@ -1532,7 +1532,7 @@
         <v>社員 66</v>
       </c>
       <c r="C67" t="str">
-        <v>雲聯網</v>
+        <v>雲聯網社</v>
       </c>
       <c r="D67" t="str">
         <v>第一分區</v>
@@ -1549,7 +1549,7 @@
         <v>社員 67</v>
       </c>
       <c r="C68" t="str">
-        <v>雲聯網</v>
+        <v>雲聯網社</v>
       </c>
       <c r="D68" t="str">
         <v>第一分區</v>
@@ -1566,7 +1566,7 @@
         <v>社員 68</v>
       </c>
       <c r="C69" t="str">
-        <v>雲聯網</v>
+        <v>雲聯網社</v>
       </c>
       <c r="D69" t="str">
         <v>第一分區</v>
@@ -1583,7 +1583,7 @@
         <v>社員 69</v>
       </c>
       <c r="C70" t="str">
-        <v>雲聯網</v>
+        <v>雲聯網社</v>
       </c>
       <c r="D70" t="str">
         <v>第一分區</v>
@@ -1600,7 +1600,7 @@
         <v>社員 70</v>
       </c>
       <c r="C71" t="str">
-        <v>雲聯網</v>
+        <v>雲聯網社</v>
       </c>
       <c r="D71" t="str">
         <v>第一分區</v>
@@ -1617,7 +1617,7 @@
         <v>社員 71</v>
       </c>
       <c r="C72" t="str">
-        <v>雲聯網</v>
+        <v>雲聯網社</v>
       </c>
       <c r="D72" t="str">
         <v>第一分區</v>
@@ -1634,7 +1634,7 @@
         <v>社員 72</v>
       </c>
       <c r="C73" t="str">
-        <v>雲聯網</v>
+        <v>雲聯網社</v>
       </c>
       <c r="D73" t="str">
         <v>第一分區</v>
@@ -1651,7 +1651,7 @@
         <v>社員 73</v>
       </c>
       <c r="C74" t="str">
-        <v>雲聯網</v>
+        <v>雲聯網社</v>
       </c>
       <c r="D74" t="str">
         <v>第一分區</v>
@@ -1668,7 +1668,7 @@
         <v>社員 74</v>
       </c>
       <c r="C75" t="str">
-        <v>雲聯網</v>
+        <v>雲聯網社</v>
       </c>
       <c r="D75" t="str">
         <v>第一分區</v>
@@ -1685,7 +1685,7 @@
         <v>社員 75</v>
       </c>
       <c r="C76" t="str">
-        <v>雲聯網</v>
+        <v>雲聯網社</v>
       </c>
       <c r="D76" t="str">
         <v>第一分區</v>
@@ -1702,7 +1702,7 @@
         <v>社員 76</v>
       </c>
       <c r="C77" t="str">
-        <v>雲聯網</v>
+        <v>雲聯網社</v>
       </c>
       <c r="D77" t="str">
         <v>第一分區</v>
@@ -1719,7 +1719,7 @@
         <v>社員 77</v>
       </c>
       <c r="C78" t="str">
-        <v>雲聯網</v>
+        <v>雲聯網社</v>
       </c>
       <c r="D78" t="str">
         <v>第一分區</v>
@@ -1736,7 +1736,7 @@
         <v>社員 78</v>
       </c>
       <c r="C79" t="str">
-        <v>雲聯網</v>
+        <v>雲聯網社</v>
       </c>
       <c r="D79" t="str">
         <v>第一分區</v>
@@ -1753,7 +1753,7 @@
         <v>社員 79</v>
       </c>
       <c r="C80" t="str">
-        <v>雲聯網</v>
+        <v>雲聯網社</v>
       </c>
       <c r="D80" t="str">
         <v>第一分區</v>
@@ -1770,7 +1770,7 @@
         <v>社員 80</v>
       </c>
       <c r="C81" t="str">
-        <v>雲聯網</v>
+        <v>雲聯網社</v>
       </c>
       <c r="D81" t="str">
         <v>第一分區</v>
@@ -1787,7 +1787,7 @@
         <v>社員 81</v>
       </c>
       <c r="C82" t="str">
-        <v>逸澤</v>
+        <v>逸澤社</v>
       </c>
       <c r="D82" t="str">
         <v>第一分區</v>
@@ -1804,7 +1804,7 @@
         <v>社員 82</v>
       </c>
       <c r="C83" t="str">
-        <v>逸澤</v>
+        <v>逸澤社</v>
       </c>
       <c r="D83" t="str">
         <v>第一分區</v>
@@ -1821,7 +1821,7 @@
         <v>社員 83</v>
       </c>
       <c r="C84" t="str">
-        <v>逸澤</v>
+        <v>逸澤社</v>
       </c>
       <c r="D84" t="str">
         <v>第一分區</v>
@@ -1838,7 +1838,7 @@
         <v>社員 84</v>
       </c>
       <c r="C85" t="str">
-        <v>逸澤</v>
+        <v>逸澤社</v>
       </c>
       <c r="D85" t="str">
         <v>第一分區</v>
@@ -1855,7 +1855,7 @@
         <v>社員 85</v>
       </c>
       <c r="C86" t="str">
-        <v>逸澤</v>
+        <v>逸澤社</v>
       </c>
       <c r="D86" t="str">
         <v>第一分區</v>
@@ -1872,7 +1872,7 @@
         <v>社員 86</v>
       </c>
       <c r="C87" t="str">
-        <v>逸澤</v>
+        <v>逸澤社</v>
       </c>
       <c r="D87" t="str">
         <v>第一分區</v>
@@ -1889,7 +1889,7 @@
         <v>社員 87</v>
       </c>
       <c r="C88" t="str">
-        <v>逸澤</v>
+        <v>逸澤社</v>
       </c>
       <c r="D88" t="str">
         <v>第一分區</v>
@@ -1906,7 +1906,7 @@
         <v>社員 88</v>
       </c>
       <c r="C89" t="str">
-        <v>逸澤</v>
+        <v>逸澤社</v>
       </c>
       <c r="D89" t="str">
         <v>第一分區</v>
@@ -1923,7 +1923,7 @@
         <v>社員 89</v>
       </c>
       <c r="C90" t="str">
-        <v>逸澤</v>
+        <v>逸澤社</v>
       </c>
       <c r="D90" t="str">
         <v>第一分區</v>
@@ -1940,7 +1940,7 @@
         <v>社員 90</v>
       </c>
       <c r="C91" t="str">
-        <v>逸澤</v>
+        <v>逸澤社</v>
       </c>
       <c r="D91" t="str">
         <v>第一分區</v>
@@ -1957,7 +1957,7 @@
         <v>社員 91</v>
       </c>
       <c r="C92" t="str">
-        <v>逸澤</v>
+        <v>逸澤社</v>
       </c>
       <c r="D92" t="str">
         <v>第一分區</v>
@@ -1974,7 +1974,7 @@
         <v>社員 92</v>
       </c>
       <c r="C93" t="str">
-        <v>逸澤</v>
+        <v>逸澤社</v>
       </c>
       <c r="D93" t="str">
         <v>第一分區</v>
@@ -1991,7 +1991,7 @@
         <v>社員 93</v>
       </c>
       <c r="C94" t="str">
-        <v>逸澤</v>
+        <v>逸澤社</v>
       </c>
       <c r="D94" t="str">
         <v>第一分區</v>
@@ -2008,7 +2008,7 @@
         <v>社員 94</v>
       </c>
       <c r="C95" t="str">
-        <v>逸澤</v>
+        <v>逸澤社</v>
       </c>
       <c r="D95" t="str">
         <v>第一分區</v>
@@ -2025,7 +2025,7 @@
         <v>社員 95</v>
       </c>
       <c r="C96" t="str">
-        <v>逸澤</v>
+        <v>逸澤社</v>
       </c>
       <c r="D96" t="str">
         <v>第一分區</v>
@@ -2042,7 +2042,7 @@
         <v>社員 96</v>
       </c>
       <c r="C97" t="str">
-        <v>逸澤</v>
+        <v>逸澤社</v>
       </c>
       <c r="D97" t="str">
         <v>第一分區</v>
@@ -2059,7 +2059,7 @@
         <v>社員 97</v>
       </c>
       <c r="C98" t="str">
-        <v>逸澤</v>
+        <v>逸澤社</v>
       </c>
       <c r="D98" t="str">
         <v>第一分區</v>
@@ -2076,7 +2076,7 @@
         <v>社員 98</v>
       </c>
       <c r="C99" t="str">
-        <v>逸澤</v>
+        <v>逸澤社</v>
       </c>
       <c r="D99" t="str">
         <v>第一分區</v>
@@ -2093,7 +2093,7 @@
         <v>社員 99</v>
       </c>
       <c r="C100" t="str">
-        <v>逸澤</v>
+        <v>逸澤社</v>
       </c>
       <c r="D100" t="str">
         <v>第一分區</v>
@@ -2110,7 +2110,7 @@
         <v>社員 100</v>
       </c>
       <c r="C101" t="str">
-        <v>逸澤</v>
+        <v>逸澤社</v>
       </c>
       <c r="D101" t="str">
         <v>第一分區</v>
@@ -2127,7 +2127,7 @@
         <v>社員 101</v>
       </c>
       <c r="C102" t="str">
-        <v>黃埔</v>
+        <v>黃埔社</v>
       </c>
       <c r="D102" t="str">
         <v>第一分區</v>
@@ -2144,7 +2144,7 @@
         <v>社員 102</v>
       </c>
       <c r="C103" t="str">
-        <v>黃埔</v>
+        <v>黃埔社</v>
       </c>
       <c r="D103" t="str">
         <v>第一分區</v>
@@ -2161,7 +2161,7 @@
         <v>社員 103</v>
       </c>
       <c r="C104" t="str">
-        <v>黃埔</v>
+        <v>黃埔社</v>
       </c>
       <c r="D104" t="str">
         <v>第一分區</v>
@@ -2178,7 +2178,7 @@
         <v>社員 104</v>
       </c>
       <c r="C105" t="str">
-        <v>黃埔</v>
+        <v>黃埔社</v>
       </c>
       <c r="D105" t="str">
         <v>第一分區</v>
@@ -2195,7 +2195,7 @@
         <v>社員 105</v>
       </c>
       <c r="C106" t="str">
-        <v>黃埔</v>
+        <v>黃埔社</v>
       </c>
       <c r="D106" t="str">
         <v>第一分區</v>
@@ -2212,7 +2212,7 @@
         <v>社員 106</v>
       </c>
       <c r="C107" t="str">
-        <v>黃埔</v>
+        <v>黃埔社</v>
       </c>
       <c r="D107" t="str">
         <v>第一分區</v>
@@ -2229,7 +2229,7 @@
         <v>社員 107</v>
       </c>
       <c r="C108" t="str">
-        <v>黃埔</v>
+        <v>黃埔社</v>
       </c>
       <c r="D108" t="str">
         <v>第一分區</v>
@@ -2246,7 +2246,7 @@
         <v>社員 108</v>
       </c>
       <c r="C109" t="str">
-        <v>黃埔</v>
+        <v>黃埔社</v>
       </c>
       <c r="D109" t="str">
         <v>第一分區</v>
@@ -2263,7 +2263,7 @@
         <v>社員 109</v>
       </c>
       <c r="C110" t="str">
-        <v>黃埔</v>
+        <v>黃埔社</v>
       </c>
       <c r="D110" t="str">
         <v>第一分區</v>
@@ -2280,7 +2280,7 @@
         <v>社員 110</v>
       </c>
       <c r="C111" t="str">
-        <v>黃埔</v>
+        <v>黃埔社</v>
       </c>
       <c r="D111" t="str">
         <v>第一分區</v>
@@ -2297,7 +2297,7 @@
         <v>社員 111</v>
       </c>
       <c r="C112" t="str">
-        <v>黃埔</v>
+        <v>黃埔社</v>
       </c>
       <c r="D112" t="str">
         <v>第一分區</v>
@@ -2314,7 +2314,7 @@
         <v>社員 112</v>
       </c>
       <c r="C113" t="str">
-        <v>黃埔</v>
+        <v>黃埔社</v>
       </c>
       <c r="D113" t="str">
         <v>第一分區</v>
@@ -2331,7 +2331,7 @@
         <v>社員 113</v>
       </c>
       <c r="C114" t="str">
-        <v>黃埔</v>
+        <v>黃埔社</v>
       </c>
       <c r="D114" t="str">
         <v>第一分區</v>
@@ -2348,7 +2348,7 @@
         <v>社員 114</v>
       </c>
       <c r="C115" t="str">
-        <v>黃埔</v>
+        <v>黃埔社</v>
       </c>
       <c r="D115" t="str">
         <v>第一分區</v>
@@ -2365,7 +2365,7 @@
         <v>社員 115</v>
       </c>
       <c r="C116" t="str">
-        <v>黃埔</v>
+        <v>黃埔社</v>
       </c>
       <c r="D116" t="str">
         <v>第一分區</v>
@@ -2382,7 +2382,7 @@
         <v>社員 116</v>
       </c>
       <c r="C117" t="str">
-        <v>黃埔</v>
+        <v>黃埔社</v>
       </c>
       <c r="D117" t="str">
         <v>第一分區</v>
@@ -2399,7 +2399,7 @@
         <v>社員 117</v>
       </c>
       <c r="C118" t="str">
-        <v>黃埔</v>
+        <v>黃埔社</v>
       </c>
       <c r="D118" t="str">
         <v>第一分區</v>
@@ -2416,7 +2416,7 @@
         <v>社員 118</v>
       </c>
       <c r="C119" t="str">
-        <v>黃埔</v>
+        <v>黃埔社</v>
       </c>
       <c r="D119" t="str">
         <v>第一分區</v>
@@ -2433,7 +2433,7 @@
         <v>社員 119</v>
       </c>
       <c r="C120" t="str">
-        <v>黃埔</v>
+        <v>黃埔社</v>
       </c>
       <c r="D120" t="str">
         <v>第一分區</v>
@@ -2450,7 +2450,7 @@
         <v>社員 120</v>
       </c>
       <c r="C121" t="str">
-        <v>黃埔</v>
+        <v>黃埔社</v>
       </c>
       <c r="D121" t="str">
         <v>第一分區</v>
@@ -2467,7 +2467,7 @@
         <v>社員 121</v>
       </c>
       <c r="C122" t="str">
-        <v>逸新</v>
+        <v>逸新社</v>
       </c>
       <c r="D122" t="str">
         <v>第一分區</v>
@@ -2484,7 +2484,7 @@
         <v>社員 122</v>
       </c>
       <c r="C123" t="str">
-        <v>逸新</v>
+        <v>逸新社</v>
       </c>
       <c r="D123" t="str">
         <v>第一分區</v>
@@ -2501,7 +2501,7 @@
         <v>社員 123</v>
       </c>
       <c r="C124" t="str">
-        <v>逸新</v>
+        <v>逸新社</v>
       </c>
       <c r="D124" t="str">
         <v>第一分區</v>
@@ -2518,7 +2518,7 @@
         <v>社員 124</v>
       </c>
       <c r="C125" t="str">
-        <v>逸新</v>
+        <v>逸新社</v>
       </c>
       <c r="D125" t="str">
         <v>第一分區</v>
@@ -2535,7 +2535,7 @@
         <v>社員 125</v>
       </c>
       <c r="C126" t="str">
-        <v>逸新</v>
+        <v>逸新社</v>
       </c>
       <c r="D126" t="str">
         <v>第一分區</v>
@@ -2552,7 +2552,7 @@
         <v>社員 126</v>
       </c>
       <c r="C127" t="str">
-        <v>逸新</v>
+        <v>逸新社</v>
       </c>
       <c r="D127" t="str">
         <v>第一分區</v>
@@ -2569,7 +2569,7 @@
         <v>社員 127</v>
       </c>
       <c r="C128" t="str">
-        <v>逸新</v>
+        <v>逸新社</v>
       </c>
       <c r="D128" t="str">
         <v>第一分區</v>
@@ -2586,7 +2586,7 @@
         <v>社員 128</v>
       </c>
       <c r="C129" t="str">
-        <v>逸新</v>
+        <v>逸新社</v>
       </c>
       <c r="D129" t="str">
         <v>第一分區</v>
@@ -2603,7 +2603,7 @@
         <v>社員 129</v>
       </c>
       <c r="C130" t="str">
-        <v>逸新</v>
+        <v>逸新社</v>
       </c>
       <c r="D130" t="str">
         <v>第一分區</v>
@@ -2620,7 +2620,7 @@
         <v>社員 130</v>
       </c>
       <c r="C131" t="str">
-        <v>逸新</v>
+        <v>逸新社</v>
       </c>
       <c r="D131" t="str">
         <v>第一分區</v>
@@ -2637,7 +2637,7 @@
         <v>社員 131</v>
       </c>
       <c r="C132" t="str">
-        <v>逸新</v>
+        <v>逸新社</v>
       </c>
       <c r="D132" t="str">
         <v>第一分區</v>
@@ -2654,7 +2654,7 @@
         <v>社員 132</v>
       </c>
       <c r="C133" t="str">
-        <v>逸新</v>
+        <v>逸新社</v>
       </c>
       <c r="D133" t="str">
         <v>第一分區</v>
@@ -2671,7 +2671,7 @@
         <v>社員 133</v>
       </c>
       <c r="C134" t="str">
-        <v>逸新</v>
+        <v>逸新社</v>
       </c>
       <c r="D134" t="str">
         <v>第一分區</v>
@@ -2688,7 +2688,7 @@
         <v>社員 134</v>
       </c>
       <c r="C135" t="str">
-        <v>逸新</v>
+        <v>逸新社</v>
       </c>
       <c r="D135" t="str">
         <v>第一分區</v>
@@ -2705,7 +2705,7 @@
         <v>社員 135</v>
       </c>
       <c r="C136" t="str">
-        <v>逸新</v>
+        <v>逸新社</v>
       </c>
       <c r="D136" t="str">
         <v>第一分區</v>
@@ -2722,7 +2722,7 @@
         <v>社員 136</v>
       </c>
       <c r="C137" t="str">
-        <v>逸新</v>
+        <v>逸新社</v>
       </c>
       <c r="D137" t="str">
         <v>第一分區</v>
@@ -2739,7 +2739,7 @@
         <v>社員 137</v>
       </c>
       <c r="C138" t="str">
-        <v>逸新</v>
+        <v>逸新社</v>
       </c>
       <c r="D138" t="str">
         <v>第一分區</v>
@@ -2756,7 +2756,7 @@
         <v>社員 138</v>
       </c>
       <c r="C139" t="str">
-        <v>逸新</v>
+        <v>逸新社</v>
       </c>
       <c r="D139" t="str">
         <v>第一分區</v>
@@ -2773,7 +2773,7 @@
         <v>社員 139</v>
       </c>
       <c r="C140" t="str">
-        <v>逸新</v>
+        <v>逸新社</v>
       </c>
       <c r="D140" t="str">
         <v>第一分區</v>
@@ -2790,7 +2790,7 @@
         <v>社員 140</v>
       </c>
       <c r="C141" t="str">
-        <v>逸新</v>
+        <v>逸新社</v>
       </c>
       <c r="D141" t="str">
         <v>第一分區</v>
@@ -2807,7 +2807,7 @@
         <v>社員 141</v>
       </c>
       <c r="C142" t="str">
-        <v>蘭亭鐵馬</v>
+        <v>蘭亭鐵馬社</v>
       </c>
       <c r="D142" t="str">
         <v>第一分區</v>
@@ -2824,7 +2824,7 @@
         <v>社員 142</v>
       </c>
       <c r="C143" t="str">
-        <v>蘭亭鐵馬</v>
+        <v>蘭亭鐵馬社</v>
       </c>
       <c r="D143" t="str">
         <v>第一分區</v>
@@ -2841,7 +2841,7 @@
         <v>社員 143</v>
       </c>
       <c r="C144" t="str">
-        <v>蘭亭鐵馬</v>
+        <v>蘭亭鐵馬社</v>
       </c>
       <c r="D144" t="str">
         <v>第一分區</v>
@@ -2858,7 +2858,7 @@
         <v>社員 144</v>
       </c>
       <c r="C145" t="str">
-        <v>蘭亭鐵馬</v>
+        <v>蘭亭鐵馬社</v>
       </c>
       <c r="D145" t="str">
         <v>第一分區</v>
@@ -2875,7 +2875,7 @@
         <v>社員 145</v>
       </c>
       <c r="C146" t="str">
-        <v>蘭亭鐵馬</v>
+        <v>蘭亭鐵馬社</v>
       </c>
       <c r="D146" t="str">
         <v>第一分區</v>
@@ -2892,7 +2892,7 @@
         <v>社員 146</v>
       </c>
       <c r="C147" t="str">
-        <v>蘭亭鐵馬</v>
+        <v>蘭亭鐵馬社</v>
       </c>
       <c r="D147" t="str">
         <v>第一分區</v>
@@ -2909,7 +2909,7 @@
         <v>社員 147</v>
       </c>
       <c r="C148" t="str">
-        <v>蘭亭鐵馬</v>
+        <v>蘭亭鐵馬社</v>
       </c>
       <c r="D148" t="str">
         <v>第一分區</v>
@@ -2926,7 +2926,7 @@
         <v>社員 148</v>
       </c>
       <c r="C149" t="str">
-        <v>蘭亭鐵馬</v>
+        <v>蘭亭鐵馬社</v>
       </c>
       <c r="D149" t="str">
         <v>第一分區</v>
@@ -2943,7 +2943,7 @@
         <v>社員 149</v>
       </c>
       <c r="C150" t="str">
-        <v>蘭亭鐵馬</v>
+        <v>蘭亭鐵馬社</v>
       </c>
       <c r="D150" t="str">
         <v>第一分區</v>
@@ -2960,7 +2960,7 @@
         <v>社員 150</v>
       </c>
       <c r="C151" t="str">
-        <v>蘭亭鐵馬</v>
+        <v>蘭亭鐵馬社</v>
       </c>
       <c r="D151" t="str">
         <v>第一分區</v>
@@ -2977,7 +2977,7 @@
         <v>社員 151</v>
       </c>
       <c r="C152" t="str">
-        <v>蘭亭鐵馬</v>
+        <v>蘭亭鐵馬社</v>
       </c>
       <c r="D152" t="str">
         <v>第一分區</v>
@@ -2994,7 +2994,7 @@
         <v>社員 152</v>
       </c>
       <c r="C153" t="str">
-        <v>蘭亭鐵馬</v>
+        <v>蘭亭鐵馬社</v>
       </c>
       <c r="D153" t="str">
         <v>第一分區</v>
@@ -3011,7 +3011,7 @@
         <v>社員 153</v>
       </c>
       <c r="C154" t="str">
-        <v>蘭亭鐵馬</v>
+        <v>蘭亭鐵馬社</v>
       </c>
       <c r="D154" t="str">
         <v>第一分區</v>
@@ -3028,7 +3028,7 @@
         <v>社員 154</v>
       </c>
       <c r="C155" t="str">
-        <v>蘭亭鐵馬</v>
+        <v>蘭亭鐵馬社</v>
       </c>
       <c r="D155" t="str">
         <v>第一分區</v>
@@ -3045,7 +3045,7 @@
         <v>社員 155</v>
       </c>
       <c r="C156" t="str">
-        <v>蘭亭鐵馬</v>
+        <v>蘭亭鐵馬社</v>
       </c>
       <c r="D156" t="str">
         <v>第一分區</v>
@@ -3062,7 +3062,7 @@
         <v>社員 156</v>
       </c>
       <c r="C157" t="str">
-        <v>蘭亭鐵馬</v>
+        <v>蘭亭鐵馬社</v>
       </c>
       <c r="D157" t="str">
         <v>第一分區</v>
@@ -3079,7 +3079,7 @@
         <v>社員 157</v>
       </c>
       <c r="C158" t="str">
-        <v>蘭亭鐵馬</v>
+        <v>蘭亭鐵馬社</v>
       </c>
       <c r="D158" t="str">
         <v>第一分區</v>
@@ -3096,7 +3096,7 @@
         <v>社員 158</v>
       </c>
       <c r="C159" t="str">
-        <v>蘭亭鐵馬</v>
+        <v>蘭亭鐵馬社</v>
       </c>
       <c r="D159" t="str">
         <v>第一分區</v>
@@ -3113,7 +3113,7 @@
         <v>社員 159</v>
       </c>
       <c r="C160" t="str">
-        <v>蘭亭鐵馬</v>
+        <v>蘭亭鐵馬社</v>
       </c>
       <c r="D160" t="str">
         <v>第一分區</v>
@@ -3130,7 +3130,7 @@
         <v>社員 160</v>
       </c>
       <c r="C161" t="str">
-        <v>蘭亭鐵馬</v>
+        <v>蘭亭鐵馬社</v>
       </c>
       <c r="D161" t="str">
         <v>第一分區</v>
@@ -3147,7 +3147,7 @@
         <v>社員 161</v>
       </c>
       <c r="C162" t="str">
-        <v>銀河</v>
+        <v>銀河社</v>
       </c>
       <c r="D162" t="str">
         <v>第一分區</v>
@@ -3164,7 +3164,7 @@
         <v>社員 162</v>
       </c>
       <c r="C163" t="str">
-        <v>銀河</v>
+        <v>銀河社</v>
       </c>
       <c r="D163" t="str">
         <v>第一分區</v>
@@ -3181,7 +3181,7 @@
         <v>社員 163</v>
       </c>
       <c r="C164" t="str">
-        <v>銀河</v>
+        <v>銀河社</v>
       </c>
       <c r="D164" t="str">
         <v>第一分區</v>
@@ -3198,7 +3198,7 @@
         <v>社員 164</v>
       </c>
       <c r="C165" t="str">
-        <v>銀河</v>
+        <v>銀河社</v>
       </c>
       <c r="D165" t="str">
         <v>第一分區</v>
@@ -3215,7 +3215,7 @@
         <v>社員 165</v>
       </c>
       <c r="C166" t="str">
-        <v>銀河</v>
+        <v>銀河社</v>
       </c>
       <c r="D166" t="str">
         <v>第一分區</v>
@@ -3232,7 +3232,7 @@
         <v>社員 166</v>
       </c>
       <c r="C167" t="str">
-        <v>銀河</v>
+        <v>銀河社</v>
       </c>
       <c r="D167" t="str">
         <v>第一分區</v>
@@ -3249,7 +3249,7 @@
         <v>社員 167</v>
       </c>
       <c r="C168" t="str">
-        <v>銀河</v>
+        <v>銀河社</v>
       </c>
       <c r="D168" t="str">
         <v>第一分區</v>
@@ -3266,7 +3266,7 @@
         <v>社員 168</v>
       </c>
       <c r="C169" t="str">
-        <v>銀河</v>
+        <v>銀河社</v>
       </c>
       <c r="D169" t="str">
         <v>第一分區</v>
@@ -3283,7 +3283,7 @@
         <v>社員 169</v>
       </c>
       <c r="C170" t="str">
-        <v>銀河</v>
+        <v>銀河社</v>
       </c>
       <c r="D170" t="str">
         <v>第一分區</v>
@@ -3300,7 +3300,7 @@
         <v>社員 170</v>
       </c>
       <c r="C171" t="str">
-        <v>銀河</v>
+        <v>銀河社</v>
       </c>
       <c r="D171" t="str">
         <v>第一分區</v>
@@ -3317,7 +3317,7 @@
         <v>社員 171</v>
       </c>
       <c r="C172" t="str">
-        <v>銀河</v>
+        <v>銀河社</v>
       </c>
       <c r="D172" t="str">
         <v>第一分區</v>
@@ -3334,7 +3334,7 @@
         <v>社員 172</v>
       </c>
       <c r="C173" t="str">
-        <v>銀河</v>
+        <v>銀河社</v>
       </c>
       <c r="D173" t="str">
         <v>第一分區</v>
@@ -3351,7 +3351,7 @@
         <v>社員 173</v>
       </c>
       <c r="C174" t="str">
-        <v>銀河</v>
+        <v>銀河社</v>
       </c>
       <c r="D174" t="str">
         <v>第一分區</v>
@@ -3368,7 +3368,7 @@
         <v>社員 174</v>
       </c>
       <c r="C175" t="str">
-        <v>銀河</v>
+        <v>銀河社</v>
       </c>
       <c r="D175" t="str">
         <v>第一分區</v>
@@ -3385,7 +3385,7 @@
         <v>社員 175</v>
       </c>
       <c r="C176" t="str">
-        <v>銀河</v>
+        <v>銀河社</v>
       </c>
       <c r="D176" t="str">
         <v>第一分區</v>
@@ -3402,7 +3402,7 @@
         <v>社員 176</v>
       </c>
       <c r="C177" t="str">
-        <v>銀河</v>
+        <v>銀河社</v>
       </c>
       <c r="D177" t="str">
         <v>第一分區</v>
@@ -3419,7 +3419,7 @@
         <v>社員 177</v>
       </c>
       <c r="C178" t="str">
-        <v>銀河</v>
+        <v>銀河社</v>
       </c>
       <c r="D178" t="str">
         <v>第一分區</v>
@@ -3436,7 +3436,7 @@
         <v>社員 178</v>
       </c>
       <c r="C179" t="str">
-        <v>銀河</v>
+        <v>銀河社</v>
       </c>
       <c r="D179" t="str">
         <v>第一分區</v>
@@ -3453,7 +3453,7 @@
         <v>社員 179</v>
       </c>
       <c r="C180" t="str">
-        <v>銀河</v>
+        <v>銀河社</v>
       </c>
       <c r="D180" t="str">
         <v>第一分區</v>
@@ -3470,7 +3470,7 @@
         <v>社員 180</v>
       </c>
       <c r="C181" t="str">
-        <v>銀河</v>
+        <v>銀河社</v>
       </c>
       <c r="D181" t="str">
         <v>第一分區</v>
@@ -3487,7 +3487,7 @@
         <v>社員 181</v>
       </c>
       <c r="C182" t="str">
-        <v>南欣</v>
+        <v>南欣社</v>
       </c>
       <c r="D182" t="str">
         <v>第四分區</v>
@@ -3504,7 +3504,7 @@
         <v>社員 182</v>
       </c>
       <c r="C183" t="str">
-        <v>南欣</v>
+        <v>南欣社</v>
       </c>
       <c r="D183" t="str">
         <v>第四分區</v>
@@ -3521,7 +3521,7 @@
         <v>社員 183</v>
       </c>
       <c r="C184" t="str">
-        <v>南欣</v>
+        <v>南欣社</v>
       </c>
       <c r="D184" t="str">
         <v>第四分區</v>
@@ -3538,7 +3538,7 @@
         <v>社員 184</v>
       </c>
       <c r="C185" t="str">
-        <v>南欣</v>
+        <v>南欣社</v>
       </c>
       <c r="D185" t="str">
         <v>第四分區</v>
@@ -3555,7 +3555,7 @@
         <v>社員 185</v>
       </c>
       <c r="C186" t="str">
-        <v>南欣</v>
+        <v>南欣社</v>
       </c>
       <c r="D186" t="str">
         <v>第四分區</v>
@@ -3572,7 +3572,7 @@
         <v>社員 186</v>
       </c>
       <c r="C187" t="str">
-        <v>南欣</v>
+        <v>南欣社</v>
       </c>
       <c r="D187" t="str">
         <v>第四分區</v>
@@ -3589,7 +3589,7 @@
         <v>社員 187</v>
       </c>
       <c r="C188" t="str">
-        <v>南欣</v>
+        <v>南欣社</v>
       </c>
       <c r="D188" t="str">
         <v>第四分區</v>
@@ -3606,7 +3606,7 @@
         <v>社員 188</v>
       </c>
       <c r="C189" t="str">
-        <v>南欣</v>
+        <v>南欣社</v>
       </c>
       <c r="D189" t="str">
         <v>第四分區</v>
@@ -3623,7 +3623,7 @@
         <v>社員 189</v>
       </c>
       <c r="C190" t="str">
-        <v>南欣</v>
+        <v>南欣社</v>
       </c>
       <c r="D190" t="str">
         <v>第四分區</v>
@@ -3640,7 +3640,7 @@
         <v>社員 190</v>
       </c>
       <c r="C191" t="str">
-        <v>南欣</v>
+        <v>南欣社</v>
       </c>
       <c r="D191" t="str">
         <v>第四分區</v>
@@ -3657,7 +3657,7 @@
         <v>社員 191</v>
       </c>
       <c r="C192" t="str">
-        <v>南欣</v>
+        <v>南欣社</v>
       </c>
       <c r="D192" t="str">
         <v>第四分區</v>
@@ -3674,7 +3674,7 @@
         <v>社員 192</v>
       </c>
       <c r="C193" t="str">
-        <v>南欣</v>
+        <v>南欣社</v>
       </c>
       <c r="D193" t="str">
         <v>第四分區</v>
@@ -3691,7 +3691,7 @@
         <v>社員 193</v>
       </c>
       <c r="C194" t="str">
-        <v>南欣</v>
+        <v>南欣社</v>
       </c>
       <c r="D194" t="str">
         <v>第四分區</v>
@@ -3708,7 +3708,7 @@
         <v>社員 194</v>
       </c>
       <c r="C195" t="str">
-        <v>南欣</v>
+        <v>南欣社</v>
       </c>
       <c r="D195" t="str">
         <v>第四分區</v>
@@ -3725,7 +3725,7 @@
         <v>社員 195</v>
       </c>
       <c r="C196" t="str">
-        <v>南欣</v>
+        <v>南欣社</v>
       </c>
       <c r="D196" t="str">
         <v>第四分區</v>
@@ -3742,7 +3742,7 @@
         <v>社員 196</v>
       </c>
       <c r="C197" t="str">
-        <v>南欣</v>
+        <v>南欣社</v>
       </c>
       <c r="D197" t="str">
         <v>第四分區</v>
@@ -3759,7 +3759,7 @@
         <v>社員 197</v>
       </c>
       <c r="C198" t="str">
-        <v>南欣</v>
+        <v>南欣社</v>
       </c>
       <c r="D198" t="str">
         <v>第四分區</v>
@@ -3776,7 +3776,7 @@
         <v>社員 198</v>
       </c>
       <c r="C199" t="str">
-        <v>南欣</v>
+        <v>南欣社</v>
       </c>
       <c r="D199" t="str">
         <v>第四分區</v>
@@ -3793,7 +3793,7 @@
         <v>社員 199</v>
       </c>
       <c r="C200" t="str">
-        <v>南欣</v>
+        <v>南欣社</v>
       </c>
       <c r="D200" t="str">
         <v>第四分區</v>
@@ -3810,7 +3810,7 @@
         <v>社員 200</v>
       </c>
       <c r="C201" t="str">
-        <v>南欣</v>
+        <v>南欣社</v>
       </c>
       <c r="D201" t="str">
         <v>第四分區</v>
@@ -3827,7 +3827,7 @@
         <v>社員 201</v>
       </c>
       <c r="C202" t="str">
-        <v>松山</v>
+        <v>松山社</v>
       </c>
       <c r="D202" t="str">
         <v>第四分區</v>
@@ -3844,7 +3844,7 @@
         <v>社員 202</v>
       </c>
       <c r="C203" t="str">
-        <v>松山</v>
+        <v>松山社</v>
       </c>
       <c r="D203" t="str">
         <v>第四分區</v>
@@ -3861,7 +3861,7 @@
         <v>社員 203</v>
       </c>
       <c r="C204" t="str">
-        <v>松山</v>
+        <v>松山社</v>
       </c>
       <c r="D204" t="str">
         <v>第四分區</v>
@@ -3878,7 +3878,7 @@
         <v>社員 204</v>
       </c>
       <c r="C205" t="str">
-        <v>松山</v>
+        <v>松山社</v>
       </c>
       <c r="D205" t="str">
         <v>第四分區</v>
@@ -3895,7 +3895,7 @@
         <v>社員 205</v>
       </c>
       <c r="C206" t="str">
-        <v>松山</v>
+        <v>松山社</v>
       </c>
       <c r="D206" t="str">
         <v>第四分區</v>
@@ -3912,7 +3912,7 @@
         <v>社員 206</v>
       </c>
       <c r="C207" t="str">
-        <v>松山</v>
+        <v>松山社</v>
       </c>
       <c r="D207" t="str">
         <v>第四分區</v>
@@ -3929,7 +3929,7 @@
         <v>社員 207</v>
       </c>
       <c r="C208" t="str">
-        <v>松山</v>
+        <v>松山社</v>
       </c>
       <c r="D208" t="str">
         <v>第四分區</v>
@@ -3946,7 +3946,7 @@
         <v>社員 208</v>
       </c>
       <c r="C209" t="str">
-        <v>松山</v>
+        <v>松山社</v>
       </c>
       <c r="D209" t="str">
         <v>第四分區</v>
@@ -3963,7 +3963,7 @@
         <v>社員 209</v>
       </c>
       <c r="C210" t="str">
-        <v>松山</v>
+        <v>松山社</v>
       </c>
       <c r="D210" t="str">
         <v>第四分區</v>
@@ -3980,7 +3980,7 @@
         <v>社員 210</v>
       </c>
       <c r="C211" t="str">
-        <v>松山</v>
+        <v>松山社</v>
       </c>
       <c r="D211" t="str">
         <v>第四分區</v>
@@ -3997,7 +3997,7 @@
         <v>社員 211</v>
       </c>
       <c r="C212" t="str">
-        <v>松山</v>
+        <v>松山社</v>
       </c>
       <c r="D212" t="str">
         <v>第四分區</v>
@@ -4014,7 +4014,7 @@
         <v>社員 212</v>
       </c>
       <c r="C213" t="str">
-        <v>松山</v>
+        <v>松山社</v>
       </c>
       <c r="D213" t="str">
         <v>第四分區</v>
@@ -4031,7 +4031,7 @@
         <v>社員 213</v>
       </c>
       <c r="C214" t="str">
-        <v>松山</v>
+        <v>松山社</v>
       </c>
       <c r="D214" t="str">
         <v>第四分區</v>
@@ -4048,7 +4048,7 @@
         <v>社員 214</v>
       </c>
       <c r="C215" t="str">
-        <v>松山</v>
+        <v>松山社</v>
       </c>
       <c r="D215" t="str">
         <v>第四分區</v>
@@ -4065,7 +4065,7 @@
         <v>社員 215</v>
       </c>
       <c r="C216" t="str">
-        <v>松山</v>
+        <v>松山社</v>
       </c>
       <c r="D216" t="str">
         <v>第四分區</v>
@@ -4082,7 +4082,7 @@
         <v>社員 216</v>
       </c>
       <c r="C217" t="str">
-        <v>松山</v>
+        <v>松山社</v>
       </c>
       <c r="D217" t="str">
         <v>第四分區</v>
@@ -4099,7 +4099,7 @@
         <v>社員 217</v>
       </c>
       <c r="C218" t="str">
-        <v>松山</v>
+        <v>松山社</v>
       </c>
       <c r="D218" t="str">
         <v>第四分區</v>
@@ -4116,7 +4116,7 @@
         <v>社員 218</v>
       </c>
       <c r="C219" t="str">
-        <v>松山</v>
+        <v>松山社</v>
       </c>
       <c r="D219" t="str">
         <v>第四分區</v>
@@ -4133,7 +4133,7 @@
         <v>社員 219</v>
       </c>
       <c r="C220" t="str">
-        <v>松山</v>
+        <v>松山社</v>
       </c>
       <c r="D220" t="str">
         <v>第四分區</v>
@@ -4150,7 +4150,7 @@
         <v>社員 220</v>
       </c>
       <c r="C221" t="str">
-        <v>松山</v>
+        <v>松山社</v>
       </c>
       <c r="D221" t="str">
         <v>第四分區</v>
@@ -4167,7 +4167,7 @@
         <v>社員 221</v>
       </c>
       <c r="C222" t="str">
-        <v>民生</v>
+        <v>民生社</v>
       </c>
       <c r="D222" t="str">
         <v>第四分區</v>
@@ -4184,7 +4184,7 @@
         <v>社員 222</v>
       </c>
       <c r="C223" t="str">
-        <v>民生</v>
+        <v>民生社</v>
       </c>
       <c r="D223" t="str">
         <v>第四分區</v>
@@ -4201,7 +4201,7 @@
         <v>社員 223</v>
       </c>
       <c r="C224" t="str">
-        <v>民生</v>
+        <v>民生社</v>
       </c>
       <c r="D224" t="str">
         <v>第四分區</v>
@@ -4218,7 +4218,7 @@
         <v>社員 224</v>
       </c>
       <c r="C225" t="str">
-        <v>民生</v>
+        <v>民生社</v>
       </c>
       <c r="D225" t="str">
         <v>第四分區</v>
@@ -4235,7 +4235,7 @@
         <v>社員 225</v>
       </c>
       <c r="C226" t="str">
-        <v>民生</v>
+        <v>民生社</v>
       </c>
       <c r="D226" t="str">
         <v>第四分區</v>
@@ -4252,7 +4252,7 @@
         <v>社員 226</v>
       </c>
       <c r="C227" t="str">
-        <v>民生</v>
+        <v>民生社</v>
       </c>
       <c r="D227" t="str">
         <v>第四分區</v>
@@ -4269,7 +4269,7 @@
         <v>社員 227</v>
       </c>
       <c r="C228" t="str">
-        <v>民生</v>
+        <v>民生社</v>
       </c>
       <c r="D228" t="str">
         <v>第四分區</v>
@@ -4286,7 +4286,7 @@
         <v>社員 228</v>
       </c>
       <c r="C229" t="str">
-        <v>民生</v>
+        <v>民生社</v>
       </c>
       <c r="D229" t="str">
         <v>第四分區</v>
@@ -4303,7 +4303,7 @@
         <v>社員 229</v>
       </c>
       <c r="C230" t="str">
-        <v>民生</v>
+        <v>民生社</v>
       </c>
       <c r="D230" t="str">
         <v>第四分區</v>
@@ -4320,7 +4320,7 @@
         <v>社員 230</v>
       </c>
       <c r="C231" t="str">
-        <v>民生</v>
+        <v>民生社</v>
       </c>
       <c r="D231" t="str">
         <v>第四分區</v>
@@ -4337,7 +4337,7 @@
         <v>社員 231</v>
       </c>
       <c r="C232" t="str">
-        <v>民生</v>
+        <v>民生社</v>
       </c>
       <c r="D232" t="str">
         <v>第四分區</v>
@@ -4354,7 +4354,7 @@
         <v>社員 232</v>
       </c>
       <c r="C233" t="str">
-        <v>民生</v>
+        <v>民生社</v>
       </c>
       <c r="D233" t="str">
         <v>第四分區</v>
@@ -4371,7 +4371,7 @@
         <v>社員 233</v>
       </c>
       <c r="C234" t="str">
-        <v>民生</v>
+        <v>民生社</v>
       </c>
       <c r="D234" t="str">
         <v>第四分區</v>
@@ -4388,7 +4388,7 @@
         <v>社員 234</v>
       </c>
       <c r="C235" t="str">
-        <v>民生</v>
+        <v>民生社</v>
       </c>
       <c r="D235" t="str">
         <v>第四分區</v>
@@ -4405,7 +4405,7 @@
         <v>社員 235</v>
       </c>
       <c r="C236" t="str">
-        <v>民生</v>
+        <v>民生社</v>
       </c>
       <c r="D236" t="str">
         <v>第四分區</v>
@@ -4422,7 +4422,7 @@
         <v>社員 236</v>
       </c>
       <c r="C237" t="str">
-        <v>民生</v>
+        <v>民生社</v>
       </c>
       <c r="D237" t="str">
         <v>第四分區</v>
@@ -4439,7 +4439,7 @@
         <v>社員 237</v>
       </c>
       <c r="C238" t="str">
-        <v>民生</v>
+        <v>民生社</v>
       </c>
       <c r="D238" t="str">
         <v>第四分區</v>
@@ -4456,7 +4456,7 @@
         <v>社員 238</v>
       </c>
       <c r="C239" t="str">
-        <v>民生</v>
+        <v>民生社</v>
       </c>
       <c r="D239" t="str">
         <v>第四分區</v>
@@ -4473,7 +4473,7 @@
         <v>社員 239</v>
       </c>
       <c r="C240" t="str">
-        <v>民生</v>
+        <v>民生社</v>
       </c>
       <c r="D240" t="str">
         <v>第四分區</v>
@@ -4490,7 +4490,7 @@
         <v>社員 240</v>
       </c>
       <c r="C241" t="str">
-        <v>民生</v>
+        <v>民生社</v>
       </c>
       <c r="D241" t="str">
         <v>第四分區</v>
@@ -4507,7 +4507,7 @@
         <v>社員 241</v>
       </c>
       <c r="C242" t="str">
-        <v>松青</v>
+        <v>松青社</v>
       </c>
       <c r="D242" t="str">
         <v>第四分區</v>
@@ -4524,7 +4524,7 @@
         <v>社員 242</v>
       </c>
       <c r="C243" t="str">
-        <v>松青</v>
+        <v>松青社</v>
       </c>
       <c r="D243" t="str">
         <v>第四分區</v>
@@ -4541,7 +4541,7 @@
         <v>社員 243</v>
       </c>
       <c r="C244" t="str">
-        <v>松青</v>
+        <v>松青社</v>
       </c>
       <c r="D244" t="str">
         <v>第四分區</v>
@@ -4558,7 +4558,7 @@
         <v>社員 244</v>
       </c>
       <c r="C245" t="str">
-        <v>松青</v>
+        <v>松青社</v>
       </c>
       <c r="D245" t="str">
         <v>第四分區</v>
@@ -4575,7 +4575,7 @@
         <v>社員 245</v>
       </c>
       <c r="C246" t="str">
-        <v>松青</v>
+        <v>松青社</v>
       </c>
       <c r="D246" t="str">
         <v>第四分區</v>
@@ -4592,7 +4592,7 @@
         <v>社員 246</v>
       </c>
       <c r="C247" t="str">
-        <v>松青</v>
+        <v>松青社</v>
       </c>
       <c r="D247" t="str">
         <v>第四分區</v>
@@ -4609,7 +4609,7 @@
         <v>社員 247</v>
       </c>
       <c r="C248" t="str">
-        <v>松青</v>
+        <v>松青社</v>
       </c>
       <c r="D248" t="str">
         <v>第四分區</v>
@@ -4626,7 +4626,7 @@
         <v>社員 248</v>
       </c>
       <c r="C249" t="str">
-        <v>松青</v>
+        <v>松青社</v>
       </c>
       <c r="D249" t="str">
         <v>第四分區</v>
@@ -4643,7 +4643,7 @@
         <v>社員 249</v>
       </c>
       <c r="C250" t="str">
-        <v>松青</v>
+        <v>松青社</v>
       </c>
       <c r="D250" t="str">
         <v>第四分區</v>
@@ -4660,7 +4660,7 @@
         <v>社員 250</v>
       </c>
       <c r="C251" t="str">
-        <v>松青</v>
+        <v>松青社</v>
       </c>
       <c r="D251" t="str">
         <v>第四分區</v>
@@ -4677,7 +4677,7 @@
         <v>社員 251</v>
       </c>
       <c r="C252" t="str">
-        <v>松青</v>
+        <v>松青社</v>
       </c>
       <c r="D252" t="str">
         <v>第四分區</v>
@@ -4694,7 +4694,7 @@
         <v>社員 252</v>
       </c>
       <c r="C253" t="str">
-        <v>松青</v>
+        <v>松青社</v>
       </c>
       <c r="D253" t="str">
         <v>第四分區</v>
@@ -4711,7 +4711,7 @@
         <v>社員 253</v>
       </c>
       <c r="C254" t="str">
-        <v>松青</v>
+        <v>松青社</v>
       </c>
       <c r="D254" t="str">
         <v>第四分區</v>
@@ -4728,7 +4728,7 @@
         <v>社員 254</v>
       </c>
       <c r="C255" t="str">
-        <v>松青</v>
+        <v>松青社</v>
       </c>
       <c r="D255" t="str">
         <v>第四分區</v>
@@ -4745,7 +4745,7 @@
         <v>社員 255</v>
       </c>
       <c r="C256" t="str">
-        <v>松青</v>
+        <v>松青社</v>
       </c>
       <c r="D256" t="str">
         <v>第四分區</v>
@@ -4762,7 +4762,7 @@
         <v>社員 256</v>
       </c>
       <c r="C257" t="str">
-        <v>松青</v>
+        <v>松青社</v>
       </c>
       <c r="D257" t="str">
         <v>第四分區</v>
@@ -4779,7 +4779,7 @@
         <v>社員 257</v>
       </c>
       <c r="C258" t="str">
-        <v>松青</v>
+        <v>松青社</v>
       </c>
       <c r="D258" t="str">
         <v>第四分區</v>
@@ -4796,7 +4796,7 @@
         <v>社員 258</v>
       </c>
       <c r="C259" t="str">
-        <v>松青</v>
+        <v>松青社</v>
       </c>
       <c r="D259" t="str">
         <v>第四分區</v>
@@ -4813,7 +4813,7 @@
         <v>社員 259</v>
       </c>
       <c r="C260" t="str">
-        <v>松青</v>
+        <v>松青社</v>
       </c>
       <c r="D260" t="str">
         <v>第四分區</v>
@@ -4830,7 +4830,7 @@
         <v>社員 260</v>
       </c>
       <c r="C261" t="str">
-        <v>松青</v>
+        <v>松青社</v>
       </c>
       <c r="D261" t="str">
         <v>第四分區</v>
@@ -4847,7 +4847,7 @@
         <v>社員 261</v>
       </c>
       <c r="C262" t="str">
-        <v>政愛</v>
+        <v>政愛社</v>
       </c>
       <c r="D262" t="str">
         <v>第四分區</v>
@@ -4864,7 +4864,7 @@
         <v>社員 262</v>
       </c>
       <c r="C263" t="str">
-        <v>政愛</v>
+        <v>政愛社</v>
       </c>
       <c r="D263" t="str">
         <v>第四分區</v>
@@ -4881,7 +4881,7 @@
         <v>社員 263</v>
       </c>
       <c r="C264" t="str">
-        <v>政愛</v>
+        <v>政愛社</v>
       </c>
       <c r="D264" t="str">
         <v>第四分區</v>
@@ -4898,7 +4898,7 @@
         <v>社員 264</v>
       </c>
       <c r="C265" t="str">
-        <v>政愛</v>
+        <v>政愛社</v>
       </c>
       <c r="D265" t="str">
         <v>第四分區</v>
@@ -4915,7 +4915,7 @@
         <v>社員 265</v>
       </c>
       <c r="C266" t="str">
-        <v>政愛</v>
+        <v>政愛社</v>
       </c>
       <c r="D266" t="str">
         <v>第四分區</v>
@@ -4932,7 +4932,7 @@
         <v>社員 266</v>
       </c>
       <c r="C267" t="str">
-        <v>政愛</v>
+        <v>政愛社</v>
       </c>
       <c r="D267" t="str">
         <v>第四分區</v>
@@ -4949,7 +4949,7 @@
         <v>社員 267</v>
       </c>
       <c r="C268" t="str">
-        <v>政愛</v>
+        <v>政愛社</v>
       </c>
       <c r="D268" t="str">
         <v>第四分區</v>
@@ -4966,7 +4966,7 @@
         <v>社員 268</v>
       </c>
       <c r="C269" t="str">
-        <v>政愛</v>
+        <v>政愛社</v>
       </c>
       <c r="D269" t="str">
         <v>第四分區</v>
@@ -4983,7 +4983,7 @@
         <v>社員 269</v>
       </c>
       <c r="C270" t="str">
-        <v>政愛</v>
+        <v>政愛社</v>
       </c>
       <c r="D270" t="str">
         <v>第四分區</v>
@@ -5000,7 +5000,7 @@
         <v>社員 270</v>
       </c>
       <c r="C271" t="str">
-        <v>政愛</v>
+        <v>政愛社</v>
       </c>
       <c r="D271" t="str">
         <v>第四分區</v>
@@ -5017,7 +5017,7 @@
         <v>社員 271</v>
       </c>
       <c r="C272" t="str">
-        <v>政愛</v>
+        <v>政愛社</v>
       </c>
       <c r="D272" t="str">
         <v>第四分區</v>
@@ -5034,7 +5034,7 @@
         <v>社員 272</v>
       </c>
       <c r="C273" t="str">
-        <v>政愛</v>
+        <v>政愛社</v>
       </c>
       <c r="D273" t="str">
         <v>第四分區</v>
@@ -5051,7 +5051,7 @@
         <v>社員 273</v>
       </c>
       <c r="C274" t="str">
-        <v>政愛</v>
+        <v>政愛社</v>
       </c>
       <c r="D274" t="str">
         <v>第四分區</v>
@@ -5068,7 +5068,7 @@
         <v>社員 274</v>
       </c>
       <c r="C275" t="str">
-        <v>政愛</v>
+        <v>政愛社</v>
       </c>
       <c r="D275" t="str">
         <v>第四分區</v>
@@ -5085,7 +5085,7 @@
         <v>社員 275</v>
       </c>
       <c r="C276" t="str">
-        <v>政愛</v>
+        <v>政愛社</v>
       </c>
       <c r="D276" t="str">
         <v>第四分區</v>
@@ -5102,7 +5102,7 @@
         <v>社員 276</v>
       </c>
       <c r="C277" t="str">
-        <v>政愛</v>
+        <v>政愛社</v>
       </c>
       <c r="D277" t="str">
         <v>第四分區</v>
@@ -5119,7 +5119,7 @@
         <v>社員 277</v>
       </c>
       <c r="C278" t="str">
-        <v>政愛</v>
+        <v>政愛社</v>
       </c>
       <c r="D278" t="str">
         <v>第四分區</v>
@@ -5136,7 +5136,7 @@
         <v>社員 278</v>
       </c>
       <c r="C279" t="str">
-        <v>政愛</v>
+        <v>政愛社</v>
       </c>
       <c r="D279" t="str">
         <v>第四分區</v>
@@ -5153,7 +5153,7 @@
         <v>社員 279</v>
       </c>
       <c r="C280" t="str">
-        <v>政愛</v>
+        <v>政愛社</v>
       </c>
       <c r="D280" t="str">
         <v>第四分區</v>
@@ -5170,7 +5170,7 @@
         <v>社員 280</v>
       </c>
       <c r="C281" t="str">
-        <v>政愛</v>
+        <v>政愛社</v>
       </c>
       <c r="D281" t="str">
         <v>第四分區</v>
@@ -5187,7 +5187,7 @@
         <v>社員 281</v>
       </c>
       <c r="C282" t="str">
-        <v>添愛</v>
+        <v>添愛社</v>
       </c>
       <c r="D282" t="str">
         <v>第四分區</v>
@@ -5204,7 +5204,7 @@
         <v>社員 282</v>
       </c>
       <c r="C283" t="str">
-        <v>添愛</v>
+        <v>添愛社</v>
       </c>
       <c r="D283" t="str">
         <v>第四分區</v>
@@ -5221,7 +5221,7 @@
         <v>社員 283</v>
       </c>
       <c r="C284" t="str">
-        <v>添愛</v>
+        <v>添愛社</v>
       </c>
       <c r="D284" t="str">
         <v>第四分區</v>
@@ -5238,7 +5238,7 @@
         <v>社員 284</v>
       </c>
       <c r="C285" t="str">
-        <v>添愛</v>
+        <v>添愛社</v>
       </c>
       <c r="D285" t="str">
         <v>第四分區</v>
@@ -5255,7 +5255,7 @@
         <v>社員 285</v>
       </c>
       <c r="C286" t="str">
-        <v>添愛</v>
+        <v>添愛社</v>
       </c>
       <c r="D286" t="str">
         <v>第四分區</v>
@@ -5272,7 +5272,7 @@
         <v>社員 286</v>
       </c>
       <c r="C287" t="str">
-        <v>添愛</v>
+        <v>添愛社</v>
       </c>
       <c r="D287" t="str">
         <v>第四分區</v>
@@ -5289,7 +5289,7 @@
         <v>社員 287</v>
       </c>
       <c r="C288" t="str">
-        <v>添愛</v>
+        <v>添愛社</v>
       </c>
       <c r="D288" t="str">
         <v>第四分區</v>
@@ -5306,7 +5306,7 @@
         <v>社員 288</v>
       </c>
       <c r="C289" t="str">
-        <v>添愛</v>
+        <v>添愛社</v>
       </c>
       <c r="D289" t="str">
         <v>第四分區</v>
@@ -5323,7 +5323,7 @@
         <v>社員 289</v>
       </c>
       <c r="C290" t="str">
-        <v>添愛</v>
+        <v>添愛社</v>
       </c>
       <c r="D290" t="str">
         <v>第四分區</v>
@@ -5340,7 +5340,7 @@
         <v>社員 290</v>
       </c>
       <c r="C291" t="str">
-        <v>添愛</v>
+        <v>添愛社</v>
       </c>
       <c r="D291" t="str">
         <v>第四分區</v>
@@ -5357,7 +5357,7 @@
         <v>社員 291</v>
       </c>
       <c r="C292" t="str">
-        <v>添愛</v>
+        <v>添愛社</v>
       </c>
       <c r="D292" t="str">
         <v>第四分區</v>
@@ -5374,7 +5374,7 @@
         <v>社員 292</v>
       </c>
       <c r="C293" t="str">
-        <v>添愛</v>
+        <v>添愛社</v>
       </c>
       <c r="D293" t="str">
         <v>第四分區</v>
@@ -5391,7 +5391,7 @@
         <v>社員 293</v>
       </c>
       <c r="C294" t="str">
-        <v>添愛</v>
+        <v>添愛社</v>
       </c>
       <c r="D294" t="str">
         <v>第四分區</v>
@@ -5408,7 +5408,7 @@
         <v>社員 294</v>
       </c>
       <c r="C295" t="str">
-        <v>添愛</v>
+        <v>添愛社</v>
       </c>
       <c r="D295" t="str">
         <v>第四分區</v>
@@ -5425,7 +5425,7 @@
         <v>社員 295</v>
       </c>
       <c r="C296" t="str">
-        <v>添愛</v>
+        <v>添愛社</v>
       </c>
       <c r="D296" t="str">
         <v>第四分區</v>
@@ -5442,7 +5442,7 @@
         <v>社員 296</v>
       </c>
       <c r="C297" t="str">
-        <v>添愛</v>
+        <v>添愛社</v>
       </c>
       <c r="D297" t="str">
         <v>第四分區</v>
@@ -5459,7 +5459,7 @@
         <v>社員 297</v>
       </c>
       <c r="C298" t="str">
-        <v>添愛</v>
+        <v>添愛社</v>
       </c>
       <c r="D298" t="str">
         <v>第四分區</v>
@@ -5476,7 +5476,7 @@
         <v>社員 298</v>
       </c>
       <c r="C299" t="str">
-        <v>添愛</v>
+        <v>添愛社</v>
       </c>
       <c r="D299" t="str">
         <v>第四分區</v>
@@ -5493,7 +5493,7 @@
         <v>社員 299</v>
       </c>
       <c r="C300" t="str">
-        <v>添愛</v>
+        <v>添愛社</v>
       </c>
       <c r="D300" t="str">
         <v>第四分區</v>
@@ -5510,7 +5510,7 @@
         <v>社員 300</v>
       </c>
       <c r="C301" t="str">
-        <v>添愛</v>
+        <v>添愛社</v>
       </c>
       <c r="D301" t="str">
         <v>第四分區</v>
@@ -5527,7 +5527,7 @@
         <v>社員 301</v>
       </c>
       <c r="C302" t="str">
-        <v>泰愛</v>
+        <v>泰愛社</v>
       </c>
       <c r="D302" t="str">
         <v>第四分區</v>
@@ -5544,7 +5544,7 @@
         <v>社員 302</v>
       </c>
       <c r="C303" t="str">
-        <v>泰愛</v>
+        <v>泰愛社</v>
       </c>
       <c r="D303" t="str">
         <v>第四分區</v>
@@ -5561,7 +5561,7 @@
         <v>社員 303</v>
       </c>
       <c r="C304" t="str">
-        <v>泰愛</v>
+        <v>泰愛社</v>
       </c>
       <c r="D304" t="str">
         <v>第四分區</v>
@@ -5578,7 +5578,7 @@
         <v>社員 304</v>
       </c>
       <c r="C305" t="str">
-        <v>泰愛</v>
+        <v>泰愛社</v>
       </c>
       <c r="D305" t="str">
         <v>第四分區</v>
@@ -5595,7 +5595,7 @@
         <v>社員 305</v>
       </c>
       <c r="C306" t="str">
-        <v>泰愛</v>
+        <v>泰愛社</v>
       </c>
       <c r="D306" t="str">
         <v>第四分區</v>
@@ -5612,7 +5612,7 @@
         <v>社員 306</v>
       </c>
       <c r="C307" t="str">
-        <v>泰愛</v>
+        <v>泰愛社</v>
       </c>
       <c r="D307" t="str">
         <v>第四分區</v>
@@ -5629,7 +5629,7 @@
         <v>社員 307</v>
       </c>
       <c r="C308" t="str">
-        <v>泰愛</v>
+        <v>泰愛社</v>
       </c>
       <c r="D308" t="str">
         <v>第四分區</v>
@@ -5646,7 +5646,7 @@
         <v>社員 308</v>
       </c>
       <c r="C309" t="str">
-        <v>泰愛</v>
+        <v>泰愛社</v>
       </c>
       <c r="D309" t="str">
         <v>第四分區</v>
@@ -5663,7 +5663,7 @@
         <v>社員 309</v>
       </c>
       <c r="C310" t="str">
-        <v>泰愛</v>
+        <v>泰愛社</v>
       </c>
       <c r="D310" t="str">
         <v>第四分區</v>
@@ -5680,7 +5680,7 @@
         <v>社員 310</v>
       </c>
       <c r="C311" t="str">
-        <v>泰愛</v>
+        <v>泰愛社</v>
       </c>
       <c r="D311" t="str">
         <v>第四分區</v>
@@ -5697,7 +5697,7 @@
         <v>社員 311</v>
       </c>
       <c r="C312" t="str">
-        <v>泰愛</v>
+        <v>泰愛社</v>
       </c>
       <c r="D312" t="str">
         <v>第四分區</v>
@@ -5714,7 +5714,7 @@
         <v>社員 312</v>
       </c>
       <c r="C313" t="str">
-        <v>泰愛</v>
+        <v>泰愛社</v>
       </c>
       <c r="D313" t="str">
         <v>第四分區</v>
@@ -5731,7 +5731,7 @@
         <v>社員 313</v>
       </c>
       <c r="C314" t="str">
-        <v>泰愛</v>
+        <v>泰愛社</v>
       </c>
       <c r="D314" t="str">
         <v>第四分區</v>
@@ -5748,7 +5748,7 @@
         <v>社員 314</v>
       </c>
       <c r="C315" t="str">
-        <v>泰愛</v>
+        <v>泰愛社</v>
       </c>
       <c r="D315" t="str">
         <v>第四分區</v>
@@ -5765,7 +5765,7 @@
         <v>社員 315</v>
       </c>
       <c r="C316" t="str">
-        <v>泰愛</v>
+        <v>泰愛社</v>
       </c>
       <c r="D316" t="str">
         <v>第四分區</v>
@@ -5782,7 +5782,7 @@
         <v>社員 316</v>
       </c>
       <c r="C317" t="str">
-        <v>泰愛</v>
+        <v>泰愛社</v>
       </c>
       <c r="D317" t="str">
         <v>第四分區</v>
@@ -5799,7 +5799,7 @@
         <v>社員 317</v>
       </c>
       <c r="C318" t="str">
-        <v>泰愛</v>
+        <v>泰愛社</v>
       </c>
       <c r="D318" t="str">
         <v>第四分區</v>
@@ -5816,7 +5816,7 @@
         <v>社員 318</v>
       </c>
       <c r="C319" t="str">
-        <v>泰愛</v>
+        <v>泰愛社</v>
       </c>
       <c r="D319" t="str">
         <v>第四分區</v>
@@ -5833,7 +5833,7 @@
         <v>社員 319</v>
       </c>
       <c r="C320" t="str">
-        <v>泰愛</v>
+        <v>泰愛社</v>
       </c>
       <c r="D320" t="str">
         <v>第四分區</v>
@@ -5850,7 +5850,7 @@
         <v>社員 320</v>
       </c>
       <c r="C321" t="str">
-        <v>泰愛</v>
+        <v>泰愛社</v>
       </c>
       <c r="D321" t="str">
         <v>第四分區</v>
@@ -5867,7 +5867,7 @@
         <v>社員 321</v>
       </c>
       <c r="C322" t="str">
-        <v>文化</v>
+        <v>文化社</v>
       </c>
       <c r="D322" t="str">
         <v>第四分區</v>
@@ -5884,7 +5884,7 @@
         <v>社員 322</v>
       </c>
       <c r="C323" t="str">
-        <v>文化</v>
+        <v>文化社</v>
       </c>
       <c r="D323" t="str">
         <v>第四分區</v>
@@ -5901,7 +5901,7 @@
         <v>社員 323</v>
       </c>
       <c r="C324" t="str">
-        <v>文化</v>
+        <v>文化社</v>
       </c>
       <c r="D324" t="str">
         <v>第四分區</v>
@@ -5918,7 +5918,7 @@
         <v>社員 324</v>
       </c>
       <c r="C325" t="str">
-        <v>文化</v>
+        <v>文化社</v>
       </c>
       <c r="D325" t="str">
         <v>第四分區</v>
@@ -5935,7 +5935,7 @@
         <v>社員 325</v>
       </c>
       <c r="C326" t="str">
-        <v>文化</v>
+        <v>文化社</v>
       </c>
       <c r="D326" t="str">
         <v>第四分區</v>
@@ -5952,7 +5952,7 @@
         <v>社員 326</v>
       </c>
       <c r="C327" t="str">
-        <v>文化</v>
+        <v>文化社</v>
       </c>
       <c r="D327" t="str">
         <v>第四分區</v>
@@ -5969,7 +5969,7 @@
         <v>社員 327</v>
       </c>
       <c r="C328" t="str">
-        <v>文化</v>
+        <v>文化社</v>
       </c>
       <c r="D328" t="str">
         <v>第四分區</v>
@@ -5986,7 +5986,7 @@
         <v>社員 328</v>
       </c>
       <c r="C329" t="str">
-        <v>文化</v>
+        <v>文化社</v>
       </c>
       <c r="D329" t="str">
         <v>第四分區</v>
@@ -6003,7 +6003,7 @@
         <v>社員 329</v>
       </c>
       <c r="C330" t="str">
-        <v>文化</v>
+        <v>文化社</v>
       </c>
       <c r="D330" t="str">
         <v>第四分區</v>
@@ -6020,7 +6020,7 @@
         <v>社員 330</v>
       </c>
       <c r="C331" t="str">
-        <v>文化</v>
+        <v>文化社</v>
       </c>
       <c r="D331" t="str">
         <v>第四分區</v>
@@ -6037,7 +6037,7 @@
         <v>社員 331</v>
       </c>
       <c r="C332" t="str">
-        <v>文化</v>
+        <v>文化社</v>
       </c>
       <c r="D332" t="str">
         <v>第四分區</v>
@@ -6054,7 +6054,7 @@
         <v>社員 332</v>
       </c>
       <c r="C333" t="str">
-        <v>文化</v>
+        <v>文化社</v>
       </c>
       <c r="D333" t="str">
         <v>第四分區</v>
@@ -6071,7 +6071,7 @@
         <v>社員 333</v>
       </c>
       <c r="C334" t="str">
-        <v>文化</v>
+        <v>文化社</v>
       </c>
       <c r="D334" t="str">
         <v>第四分區</v>
@@ -6088,7 +6088,7 @@
         <v>社員 334</v>
       </c>
       <c r="C335" t="str">
-        <v>文化</v>
+        <v>文化社</v>
       </c>
       <c r="D335" t="str">
         <v>第四分區</v>
@@ -6105,7 +6105,7 @@
         <v>社員 335</v>
       </c>
       <c r="C336" t="str">
-        <v>文化</v>
+        <v>文化社</v>
       </c>
       <c r="D336" t="str">
         <v>第四分區</v>
@@ -6122,7 +6122,7 @@
         <v>社員 336</v>
       </c>
       <c r="C337" t="str">
-        <v>文化</v>
+        <v>文化社</v>
       </c>
       <c r="D337" t="str">
         <v>第四分區</v>
@@ -6139,7 +6139,7 @@
         <v>社員 337</v>
       </c>
       <c r="C338" t="str">
-        <v>文化</v>
+        <v>文化社</v>
       </c>
       <c r="D338" t="str">
         <v>第四分區</v>
@@ -6156,7 +6156,7 @@
         <v>社員 338</v>
       </c>
       <c r="C339" t="str">
-        <v>文化</v>
+        <v>文化社</v>
       </c>
       <c r="D339" t="str">
         <v>第四分區</v>
@@ -6173,7 +6173,7 @@
         <v>社員 339</v>
       </c>
       <c r="C340" t="str">
-        <v>文化</v>
+        <v>文化社</v>
       </c>
       <c r="D340" t="str">
         <v>第四分區</v>
@@ -6190,7 +6190,7 @@
         <v>社員 340</v>
       </c>
       <c r="C341" t="str">
-        <v>文化</v>
+        <v>文化社</v>
       </c>
       <c r="D341" t="str">
         <v>第四分區</v>
@@ -6207,7 +6207,7 @@
         <v>社員 341</v>
       </c>
       <c r="C342" t="str">
-        <v>府門</v>
+        <v>府門社</v>
       </c>
       <c r="D342" t="str">
         <v>第五分區</v>
@@ -6224,7 +6224,7 @@
         <v>社員 342</v>
       </c>
       <c r="C343" t="str">
-        <v>府門</v>
+        <v>府門社</v>
       </c>
       <c r="D343" t="str">
         <v>第五分區</v>
@@ -6241,7 +6241,7 @@
         <v>社員 343</v>
       </c>
       <c r="C344" t="str">
-        <v>府門</v>
+        <v>府門社</v>
       </c>
       <c r="D344" t="str">
         <v>第五分區</v>
@@ -6258,7 +6258,7 @@
         <v>社員 344</v>
       </c>
       <c r="C345" t="str">
-        <v>府門</v>
+        <v>府門社</v>
       </c>
       <c r="D345" t="str">
         <v>第五分區</v>
@@ -6275,7 +6275,7 @@
         <v>社員 345</v>
       </c>
       <c r="C346" t="str">
-        <v>府門</v>
+        <v>府門社</v>
       </c>
       <c r="D346" t="str">
         <v>第五分區</v>
@@ -6292,7 +6292,7 @@
         <v>社員 346</v>
       </c>
       <c r="C347" t="str">
-        <v>府門</v>
+        <v>府門社</v>
       </c>
       <c r="D347" t="str">
         <v>第五分區</v>
@@ -6309,7 +6309,7 @@
         <v>社員 347</v>
       </c>
       <c r="C348" t="str">
-        <v>府門</v>
+        <v>府門社</v>
       </c>
       <c r="D348" t="str">
         <v>第五分區</v>
@@ -6326,7 +6326,7 @@
         <v>社員 348</v>
       </c>
       <c r="C349" t="str">
-        <v>府門</v>
+        <v>府門社</v>
       </c>
       <c r="D349" t="str">
         <v>第五分區</v>
@@ -6343,7 +6343,7 @@
         <v>社員 349</v>
       </c>
       <c r="C350" t="str">
-        <v>府門</v>
+        <v>府門社</v>
       </c>
       <c r="D350" t="str">
         <v>第五分區</v>
@@ -6360,7 +6360,7 @@
         <v>社員 350</v>
       </c>
       <c r="C351" t="str">
-        <v>府門</v>
+        <v>府門社</v>
       </c>
       <c r="D351" t="str">
         <v>第五分區</v>
@@ -6377,7 +6377,7 @@
         <v>社員 351</v>
       </c>
       <c r="C352" t="str">
-        <v>府門</v>
+        <v>府門社</v>
       </c>
       <c r="D352" t="str">
         <v>第五分區</v>
@@ -6394,7 +6394,7 @@
         <v>社員 352</v>
       </c>
       <c r="C353" t="str">
-        <v>府門</v>
+        <v>府門社</v>
       </c>
       <c r="D353" t="str">
         <v>第五分區</v>
@@ -6411,7 +6411,7 @@
         <v>社員 353</v>
       </c>
       <c r="C354" t="str">
-        <v>府門</v>
+        <v>府門社</v>
       </c>
       <c r="D354" t="str">
         <v>第五分區</v>
@@ -6428,7 +6428,7 @@
         <v>社員 354</v>
       </c>
       <c r="C355" t="str">
-        <v>府門</v>
+        <v>府門社</v>
       </c>
       <c r="D355" t="str">
         <v>第五分區</v>
@@ -6445,7 +6445,7 @@
         <v>社員 355</v>
       </c>
       <c r="C356" t="str">
-        <v>府門</v>
+        <v>府門社</v>
       </c>
       <c r="D356" t="str">
         <v>第五分區</v>
@@ -6462,7 +6462,7 @@
         <v>社員 356</v>
       </c>
       <c r="C357" t="str">
-        <v>府門</v>
+        <v>府門社</v>
       </c>
       <c r="D357" t="str">
         <v>第五分區</v>
@@ -6479,7 +6479,7 @@
         <v>社員 357</v>
       </c>
       <c r="C358" t="str">
-        <v>府門</v>
+        <v>府門社</v>
       </c>
       <c r="D358" t="str">
         <v>第五分區</v>
@@ -6496,7 +6496,7 @@
         <v>社員 358</v>
       </c>
       <c r="C359" t="str">
-        <v>府門</v>
+        <v>府門社</v>
       </c>
       <c r="D359" t="str">
         <v>第五分區</v>
@@ -6513,7 +6513,7 @@
         <v>社員 359</v>
       </c>
       <c r="C360" t="str">
-        <v>府門</v>
+        <v>府門社</v>
       </c>
       <c r="D360" t="str">
         <v>第五分區</v>
@@ -6530,7 +6530,7 @@
         <v>社員 360</v>
       </c>
       <c r="C361" t="str">
-        <v>府門</v>
+        <v>府門社</v>
       </c>
       <c r="D361" t="str">
         <v>第五分區</v>
@@ -6547,7 +6547,7 @@
         <v>社員 361</v>
       </c>
       <c r="C362" t="str">
-        <v>南陽</v>
+        <v>南陽社</v>
       </c>
       <c r="D362" t="str">
         <v>第五分區</v>
@@ -6564,7 +6564,7 @@
         <v>社員 362</v>
       </c>
       <c r="C363" t="str">
-        <v>南陽</v>
+        <v>南陽社</v>
       </c>
       <c r="D363" t="str">
         <v>第五分區</v>
@@ -6581,7 +6581,7 @@
         <v>社員 363</v>
       </c>
       <c r="C364" t="str">
-        <v>南陽</v>
+        <v>南陽社</v>
       </c>
       <c r="D364" t="str">
         <v>第五分區</v>
@@ -6598,7 +6598,7 @@
         <v>社員 364</v>
       </c>
       <c r="C365" t="str">
-        <v>南陽</v>
+        <v>南陽社</v>
       </c>
       <c r="D365" t="str">
         <v>第五分區</v>
@@ -6615,7 +6615,7 @@
         <v>社員 365</v>
       </c>
       <c r="C366" t="str">
-        <v>南陽</v>
+        <v>南陽社</v>
       </c>
       <c r="D366" t="str">
         <v>第五分區</v>
@@ -6632,7 +6632,7 @@
         <v>社員 366</v>
       </c>
       <c r="C367" t="str">
-        <v>南陽</v>
+        <v>南陽社</v>
       </c>
       <c r="D367" t="str">
         <v>第五分區</v>
@@ -6649,7 +6649,7 @@
         <v>社員 367</v>
       </c>
       <c r="C368" t="str">
-        <v>南陽</v>
+        <v>南陽社</v>
       </c>
       <c r="D368" t="str">
         <v>第五分區</v>
@@ -6666,7 +6666,7 @@
         <v>社員 368</v>
       </c>
       <c r="C369" t="str">
-        <v>南陽</v>
+        <v>南陽社</v>
       </c>
       <c r="D369" t="str">
         <v>第五分區</v>
@@ -6683,7 +6683,7 @@
         <v>社員 369</v>
       </c>
       <c r="C370" t="str">
-        <v>南陽</v>
+        <v>南陽社</v>
       </c>
       <c r="D370" t="str">
         <v>第五分區</v>
@@ -6700,7 +6700,7 @@
         <v>社員 370</v>
       </c>
       <c r="C371" t="str">
-        <v>南陽</v>
+        <v>南陽社</v>
       </c>
       <c r="D371" t="str">
         <v>第五分區</v>
@@ -6717,7 +6717,7 @@
         <v>社員 371</v>
       </c>
       <c r="C372" t="str">
-        <v>南陽</v>
+        <v>南陽社</v>
       </c>
       <c r="D372" t="str">
         <v>第五分區</v>
@@ -6734,7 +6734,7 @@
         <v>社員 372</v>
       </c>
       <c r="C373" t="str">
-        <v>南陽</v>
+        <v>南陽社</v>
       </c>
       <c r="D373" t="str">
         <v>第五分區</v>
@@ -6751,7 +6751,7 @@
         <v>社員 373</v>
       </c>
       <c r="C374" t="str">
-        <v>南陽</v>
+        <v>南陽社</v>
       </c>
       <c r="D374" t="str">
         <v>第五分區</v>
@@ -6768,7 +6768,7 @@
         <v>社員 374</v>
       </c>
       <c r="C375" t="str">
-        <v>南陽</v>
+        <v>南陽社</v>
       </c>
       <c r="D375" t="str">
         <v>第五分區</v>
@@ -6785,7 +6785,7 @@
         <v>社員 375</v>
       </c>
       <c r="C376" t="str">
-        <v>南陽</v>
+        <v>南陽社</v>
       </c>
       <c r="D376" t="str">
         <v>第五分區</v>
@@ -6802,7 +6802,7 @@
         <v>社員 376</v>
       </c>
       <c r="C377" t="str">
-        <v>南陽</v>
+        <v>南陽社</v>
       </c>
       <c r="D377" t="str">
         <v>第五分區</v>
@@ -6819,7 +6819,7 @@
         <v>社員 377</v>
       </c>
       <c r="C378" t="str">
-        <v>南陽</v>
+        <v>南陽社</v>
       </c>
       <c r="D378" t="str">
         <v>第五分區</v>
@@ -6836,7 +6836,7 @@
         <v>社員 378</v>
       </c>
       <c r="C379" t="str">
-        <v>南陽</v>
+        <v>南陽社</v>
       </c>
       <c r="D379" t="str">
         <v>第五分區</v>
@@ -6853,7 +6853,7 @@
         <v>社員 379</v>
       </c>
       <c r="C380" t="str">
-        <v>南陽</v>
+        <v>南陽社</v>
       </c>
       <c r="D380" t="str">
         <v>第五分區</v>
@@ -6870,7 +6870,7 @@
         <v>社員 380</v>
       </c>
       <c r="C381" t="str">
-        <v>南陽</v>
+        <v>南陽社</v>
       </c>
       <c r="D381" t="str">
         <v>第五分區</v>
@@ -6887,7 +6887,7 @@
         <v>社員 381</v>
       </c>
       <c r="C382" t="str">
-        <v>明星</v>
+        <v>明星社</v>
       </c>
       <c r="D382" t="str">
         <v>第五分區</v>
@@ -6904,7 +6904,7 @@
         <v>社員 382</v>
       </c>
       <c r="C383" t="str">
-        <v>明星</v>
+        <v>明星社</v>
       </c>
       <c r="D383" t="str">
         <v>第五分區</v>
@@ -6921,7 +6921,7 @@
         <v>社員 383</v>
       </c>
       <c r="C384" t="str">
-        <v>明星</v>
+        <v>明星社</v>
       </c>
       <c r="D384" t="str">
         <v>第五分區</v>
@@ -6938,7 +6938,7 @@
         <v>社員 384</v>
       </c>
       <c r="C385" t="str">
-        <v>明星</v>
+        <v>明星社</v>
       </c>
       <c r="D385" t="str">
         <v>第五分區</v>
@@ -6955,7 +6955,7 @@
         <v>社員 385</v>
       </c>
       <c r="C386" t="str">
-        <v>明星</v>
+        <v>明星社</v>
       </c>
       <c r="D386" t="str">
         <v>第五分區</v>
@@ -6972,7 +6972,7 @@
         <v>社員 386</v>
       </c>
       <c r="C387" t="str">
-        <v>明星</v>
+        <v>明星社</v>
       </c>
       <c r="D387" t="str">
         <v>第五分區</v>
@@ -6989,7 +6989,7 @@
         <v>社員 387</v>
       </c>
       <c r="C388" t="str">
-        <v>明星</v>
+        <v>明星社</v>
       </c>
       <c r="D388" t="str">
         <v>第五分區</v>
@@ -7006,7 +7006,7 @@
         <v>社員 388</v>
       </c>
       <c r="C389" t="str">
-        <v>明星</v>
+        <v>明星社</v>
       </c>
       <c r="D389" t="str">
         <v>第五分區</v>
@@ -7023,7 +7023,7 @@
         <v>社員 389</v>
       </c>
       <c r="C390" t="str">
-        <v>明星</v>
+        <v>明星社</v>
       </c>
       <c r="D390" t="str">
         <v>第五分區</v>
@@ -7040,7 +7040,7 @@
         <v>社員 390</v>
       </c>
       <c r="C391" t="str">
-        <v>明星</v>
+        <v>明星社</v>
       </c>
       <c r="D391" t="str">
         <v>第五分區</v>
@@ -7057,7 +7057,7 @@
         <v>社員 391</v>
       </c>
       <c r="C392" t="str">
-        <v>明星</v>
+        <v>明星社</v>
       </c>
       <c r="D392" t="str">
         <v>第五分區</v>
@@ -7074,7 +7074,7 @@
         <v>社員 392</v>
       </c>
       <c r="C393" t="str">
-        <v>明星</v>
+        <v>明星社</v>
       </c>
       <c r="D393" t="str">
         <v>第五分區</v>
@@ -7091,7 +7091,7 @@
         <v>社員 393</v>
       </c>
       <c r="C394" t="str">
-        <v>明星</v>
+        <v>明星社</v>
       </c>
       <c r="D394" t="str">
         <v>第五分區</v>
@@ -7108,7 +7108,7 @@
         <v>社員 394</v>
       </c>
       <c r="C395" t="str">
-        <v>明星</v>
+        <v>明星社</v>
       </c>
       <c r="D395" t="str">
         <v>第五分區</v>
@@ -7125,7 +7125,7 @@
         <v>社員 395</v>
       </c>
       <c r="C396" t="str">
-        <v>明星</v>
+        <v>明星社</v>
       </c>
       <c r="D396" t="str">
         <v>第五分區</v>
@@ -7142,7 +7142,7 @@
         <v>社員 396</v>
       </c>
       <c r="C397" t="str">
-        <v>明星</v>
+        <v>明星社</v>
       </c>
       <c r="D397" t="str">
         <v>第五分區</v>
@@ -7159,7 +7159,7 @@
         <v>社員 397</v>
       </c>
       <c r="C398" t="str">
-        <v>明星</v>
+        <v>明星社</v>
       </c>
       <c r="D398" t="str">
         <v>第五分區</v>
@@ -7176,7 +7176,7 @@
         <v>社員 398</v>
       </c>
       <c r="C399" t="str">
-        <v>明星</v>
+        <v>明星社</v>
       </c>
       <c r="D399" t="str">
         <v>第五分區</v>
@@ -7193,7 +7193,7 @@
         <v>社員 399</v>
       </c>
       <c r="C400" t="str">
-        <v>明星</v>
+        <v>明星社</v>
       </c>
       <c r="D400" t="str">
         <v>第五分區</v>
@@ -7210,7 +7210,7 @@
         <v>社員 400</v>
       </c>
       <c r="C401" t="str">
-        <v>明星</v>
+        <v>明星社</v>
       </c>
       <c r="D401" t="str">
         <v>第五分區</v>
@@ -7227,7 +7227,7 @@
         <v>社員 401</v>
       </c>
       <c r="C402" t="str">
-        <v>風雲</v>
+        <v>風雲社</v>
       </c>
       <c r="D402" t="str">
         <v>第五分區</v>
@@ -7244,7 +7244,7 @@
         <v>社員 402</v>
       </c>
       <c r="C403" t="str">
-        <v>風雲</v>
+        <v>風雲社</v>
       </c>
       <c r="D403" t="str">
         <v>第五分區</v>
@@ -7261,7 +7261,7 @@
         <v>社員 403</v>
       </c>
       <c r="C404" t="str">
-        <v>風雲</v>
+        <v>風雲社</v>
       </c>
       <c r="D404" t="str">
         <v>第五分區</v>
@@ -7278,7 +7278,7 @@
         <v>社員 404</v>
       </c>
       <c r="C405" t="str">
-        <v>風雲</v>
+        <v>風雲社</v>
       </c>
       <c r="D405" t="str">
         <v>第五分區</v>
@@ -7295,7 +7295,7 @@
         <v>社員 405</v>
       </c>
       <c r="C406" t="str">
-        <v>風雲</v>
+        <v>風雲社</v>
       </c>
       <c r="D406" t="str">
         <v>第五分區</v>
@@ -7312,7 +7312,7 @@
         <v>社員 406</v>
       </c>
       <c r="C407" t="str">
-        <v>風雲</v>
+        <v>風雲社</v>
       </c>
       <c r="D407" t="str">
         <v>第五分區</v>
@@ -7329,7 +7329,7 @@
         <v>社員 407</v>
       </c>
       <c r="C408" t="str">
-        <v>風雲</v>
+        <v>風雲社</v>
       </c>
       <c r="D408" t="str">
         <v>第五分區</v>
@@ -7346,7 +7346,7 @@
         <v>社員 408</v>
       </c>
       <c r="C409" t="str">
-        <v>風雲</v>
+        <v>風雲社</v>
       </c>
       <c r="D409" t="str">
         <v>第五分區</v>
@@ -7363,7 +7363,7 @@
         <v>社員 409</v>
       </c>
       <c r="C410" t="str">
-        <v>風雲</v>
+        <v>風雲社</v>
       </c>
       <c r="D410" t="str">
         <v>第五分區</v>
@@ -7380,7 +7380,7 @@
         <v>社員 410</v>
       </c>
       <c r="C411" t="str">
-        <v>風雲</v>
+        <v>風雲社</v>
       </c>
       <c r="D411" t="str">
         <v>第五分區</v>
@@ -7397,7 +7397,7 @@
         <v>社員 411</v>
       </c>
       <c r="C412" t="str">
-        <v>風雲</v>
+        <v>風雲社</v>
       </c>
       <c r="D412" t="str">
         <v>第五分區</v>
@@ -7414,7 +7414,7 @@
         <v>社員 412</v>
       </c>
       <c r="C413" t="str">
-        <v>風雲</v>
+        <v>風雲社</v>
       </c>
       <c r="D413" t="str">
         <v>第五分區</v>
@@ -7431,7 +7431,7 @@
         <v>社員 413</v>
       </c>
       <c r="C414" t="str">
-        <v>風雲</v>
+        <v>風雲社</v>
       </c>
       <c r="D414" t="str">
         <v>第五分區</v>
@@ -7448,7 +7448,7 @@
         <v>社員 414</v>
       </c>
       <c r="C415" t="str">
-        <v>風雲</v>
+        <v>風雲社</v>
       </c>
       <c r="D415" t="str">
         <v>第五分區</v>
@@ -7465,7 +7465,7 @@
         <v>社員 415</v>
       </c>
       <c r="C416" t="str">
-        <v>風雲</v>
+        <v>風雲社</v>
       </c>
       <c r="D416" t="str">
         <v>第五分區</v>
@@ -7482,7 +7482,7 @@
         <v>社員 416</v>
       </c>
       <c r="C417" t="str">
-        <v>風雲</v>
+        <v>風雲社</v>
       </c>
       <c r="D417" t="str">
         <v>第五分區</v>
@@ -7499,7 +7499,7 @@
         <v>社員 417</v>
       </c>
       <c r="C418" t="str">
-        <v>風雲</v>
+        <v>風雲社</v>
       </c>
       <c r="D418" t="str">
         <v>第五分區</v>
@@ -7516,7 +7516,7 @@
         <v>社員 418</v>
       </c>
       <c r="C419" t="str">
-        <v>風雲</v>
+        <v>風雲社</v>
       </c>
       <c r="D419" t="str">
         <v>第五分區</v>
@@ -7533,7 +7533,7 @@
         <v>社員 419</v>
       </c>
       <c r="C420" t="str">
-        <v>風雲</v>
+        <v>風雲社</v>
       </c>
       <c r="D420" t="str">
         <v>第五分區</v>
@@ -7550,7 +7550,7 @@
         <v>社員 420</v>
       </c>
       <c r="C421" t="str">
-        <v>風雲</v>
+        <v>風雲社</v>
       </c>
       <c r="D421" t="str">
         <v>第五分區</v>
